--- a/hwycol_unit_time_scaled_current.xlsx
+++ b/hwycol_unit_time_scaled_current.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>scaled_current</t>
+  </si>
   <si>
     <t>time</t>
   </si>
@@ -51,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -62,15 +68,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,15 +92,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -100,7 +108,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -108,7 +116,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -116,7 +124,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -124,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>1.801849514908977</v>
+        <v>-1.1787597564815844</v>
       </c>
     </row>
     <row r="6">
@@ -132,7 +140,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>5.463036854404888</v>
+        <v>-3.5967798642478463</v>
       </c>
     </row>
     <row r="7">
@@ -140,7 +148,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>9.47383734020441</v>
+        <v>-6.282214903922295</v>
       </c>
     </row>
     <row r="8">
@@ -148,7 +156,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0">
-        <v>13.235543204445628</v>
+        <v>-8.8371460199688787</v>
       </c>
     </row>
     <row r="9">
@@ -156,7 +164,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0">
-        <v>15.978378121174343</v>
+        <v>-10.723153349241828</v>
       </c>
     </row>
     <row r="10">
@@ -164,7 +172,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>16.320624669601237</v>
+        <v>-10.959891415845775</v>
       </c>
     </row>
     <row r="11">
@@ -172,7 +180,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="0">
-        <v>16.425298232391413</v>
+        <v>-11.032359074725887</v>
       </c>
     </row>
     <row r="12">
@@ -180,7 +188,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0">
-        <v>17.915063023359721</v>
+        <v>-12.066982977784615</v>
       </c>
     </row>
     <row r="13">
@@ -188,7 +196,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0">
-        <v>18.052262217101561</v>
+        <v>-12.162571852713956</v>
       </c>
     </row>
     <row r="14">
@@ -196,7 +204,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="0">
-        <v>15.305191630231899</v>
+        <v>-10.25841566928999</v>
       </c>
     </row>
     <row r="15">
@@ -204,7 +212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="0">
-        <v>11.762189642422578</v>
+        <v>-7.8321631146688961</v>
       </c>
     </row>
     <row r="16">
@@ -212,7 +220,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0">
-        <v>10.679002961978064</v>
+        <v>-7.0968548670539366</v>
       </c>
     </row>
     <row r="17">
@@ -220,7 +228,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="0">
-        <v>11.601213075755661</v>
+        <v>-7.7226976042136979</v>
       </c>
     </row>
     <row r="18">
@@ -228,7 +236,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0">
-        <v>10.426194922822667</v>
+        <v>-6.9256660259321912</v>
       </c>
     </row>
     <row r="19">
@@ -236,7 +244,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0">
-        <v>9.5965230754665587</v>
+        <v>-6.3649794005551241</v>
       </c>
     </row>
     <row r="20">
@@ -244,7 +252,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0">
-        <v>9.8696680081787633</v>
+        <v>-6.5493790504774125</v>
       </c>
     </row>
     <row r="21">
@@ -252,7 +260,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0">
-        <v>9.5373130220101103</v>
+        <v>-6.3250312908402506</v>
       </c>
     </row>
     <row r="22">
@@ -260,7 +268,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="0">
-        <v>9.1814206075950295</v>
+        <v>-6.0850995208600791</v>
       </c>
     </row>
     <row r="23">
@@ -268,7 +276,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="0">
-        <v>8.7725581098425547</v>
+        <v>-5.8098437524606732</v>
       </c>
     </row>
     <row r="24">
@@ -276,7 +284,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="0">
-        <v>8.3434196834265126</v>
+        <v>-5.5213805441314747</v>
       </c>
     </row>
     <row r="25">
@@ -284,7 +292,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="0">
-        <v>6.6377644636926707</v>
+        <v>-4.3792924763138776</v>
       </c>
     </row>
     <row r="26">
@@ -292,7 +300,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="0">
-        <v>4.8455114100288172</v>
+        <v>-3.1867462560365167</v>
       </c>
     </row>
     <row r="27">
@@ -300,7 +308,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="0">
-        <v>6.7513364360531547</v>
+        <v>-4.4551203321534647</v>
       </c>
     </row>
     <row r="28">
@@ -308,7 +316,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="0">
-        <v>6.8886000670384906</v>
+        <v>-4.5468076505596002</v>
       </c>
     </row>
     <row r="29">
@@ -316,7 +324,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="0">
-        <v>2.4708218990894473</v>
+        <v>-1.6182682513117128</v>
       </c>
     </row>
     <row r="30">
@@ -324,7 +332,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="0">
-        <v>-1.9855951153493621</v>
+        <v>1.2905938308244331</v>
       </c>
     </row>
     <row r="31">
@@ -332,7 +340,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="0">
-        <v>-3.8529425549106988</v>
+        <v>2.4964846449458298</v>
       </c>
     </row>
     <row r="32">
@@ -340,7 +348,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="0">
-        <v>-3.2048102476974321</v>
+        <v>2.0787870191186517</v>
       </c>
     </row>
     <row r="33">
@@ -348,7 +356,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="0">
-        <v>-0.12310656387448661</v>
+        <v>0.080270016680302717</v>
       </c>
     </row>
     <row r="34">
@@ -356,7 +364,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="0">
-        <v>3.5644753736559522</v>
+        <v>-2.3389989882643794</v>
       </c>
     </row>
     <row r="35">
@@ -364,7 +372,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="0">
-        <v>4.8281377558361722</v>
+        <v>-3.1752232477594462</v>
       </c>
     </row>
     <row r="36">
@@ -372,7 +380,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0">
-        <v>7.3752144859256807</v>
+        <v>-4.872215267817622</v>
       </c>
     </row>
     <row r="37">
@@ -380,7 +388,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="0">
-        <v>8.1578465574038894</v>
+        <v>-5.3967797554158867</v>
       </c>
     </row>
     <row r="38">
@@ -388,7 +396,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="0">
-        <v>5.0563076407911307</v>
+        <v>-3.3266126539749563</v>
       </c>
     </row>
     <row r="39">
@@ -396,7 +404,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="0">
-        <v>4.4310496790635581</v>
+        <v>-2.9120494144318623</v>
       </c>
     </row>
     <row r="40">
@@ -404,7 +412,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="0">
-        <v>5.1275362032170735</v>
+        <v>-3.373897527670314</v>
       </c>
     </row>
     <row r="41">
@@ -412,7 +420,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="0">
-        <v>4.5114177711520806</v>
+        <v>-2.9652842627993139</v>
       </c>
     </row>
     <row r="42">
@@ -420,7 +428,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="0">
-        <v>3.8884233489809339</v>
+        <v>-2.553015413027806</v>
       </c>
     </row>
     <row r="43">
@@ -428,7 +436,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="0">
-        <v>2.5889586601547054</v>
+        <v>-1.6959892311909177</v>
       </c>
     </row>
     <row r="44">
@@ -436,7 +444,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="0">
-        <v>1.9321805710013571</v>
+        <v>-1.2643060021894139</v>
       </c>
     </row>
     <row r="45">
@@ -444,7 +452,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="0">
-        <v>1.9321805710013571</v>
+        <v>-1.2643060021894139</v>
       </c>
     </row>
     <row r="46">
@@ -452,7 +460,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="0">
-        <v>1.9321805710013571</v>
+        <v>-1.2643060021894139</v>
       </c>
     </row>
     <row r="47">
@@ -460,7 +468,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="0">
-        <v>1.9321805710013571</v>
+        <v>-1.2643060021894139</v>
       </c>
     </row>
     <row r="48">
@@ -468,7 +476,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="0">
-        <v>2.5889586601547054</v>
+        <v>-1.6959892311909421</v>
       </c>
     </row>
     <row r="49">
@@ -476,7 +484,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="0">
-        <v>3.9173514688314199</v>
+        <v>-2.5721386571388205</v>
       </c>
     </row>
     <row r="50">
@@ -484,7 +492,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="0">
-        <v>6.5970184492637074</v>
+        <v>-4.3520954049121983</v>
       </c>
     </row>
     <row r="51">
@@ -492,7 +500,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="0">
-        <v>10.73885567634778</v>
+        <v>-7.1374076573646521</v>
       </c>
     </row>
     <row r="52">
@@ -500,7 +508,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="0">
-        <v>12.374088175791416</v>
+        <v>-8.2488642264170533</v>
       </c>
     </row>
     <row r="53">
@@ -508,7 +516,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="0">
-        <v>11.92990716035264</v>
+        <v>-7.9462828854494356</v>
       </c>
     </row>
     <row r="54">
@@ -516,7 +524,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="0">
-        <v>12.174381783243712</v>
+        <v>-8.112759273103217</v>
       </c>
     </row>
     <row r="55">
@@ -524,7 +532,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="0">
-        <v>12.420509071802172</v>
+        <v>-8.280515920066275</v>
       </c>
     </row>
     <row r="56">
@@ -532,7 +540,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="0">
-        <v>13.405388809339593</v>
+        <v>-8.9533593639682127</v>
       </c>
     </row>
     <row r="57">
@@ -540,7 +548,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="0">
-        <v>13.704994209891767</v>
+        <v>-9.1585413764857666</v>
       </c>
     </row>
     <row r="58">
@@ -548,7 +556,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="0">
-        <v>12.441387196960035</v>
+        <v>-8.2947532996243538</v>
       </c>
     </row>
     <row r="59">
@@ -556,7 +564,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="0">
-        <v>11.099217062254198</v>
+        <v>-7.381759116783754</v>
       </c>
     </row>
     <row r="60">
@@ -564,7 +572,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="0">
-        <v>8.9060628682105349</v>
+        <v>-5.8996769053785973</v>
       </c>
     </row>
     <row r="61">
@@ -572,7 +580,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="0">
-        <v>6.620757318441683</v>
+        <v>-4.3679400949367881</v>
       </c>
     </row>
     <row r="62">
@@ -580,7 +588,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="0">
-        <v>6.6618324495408157</v>
+        <v>-4.3953592025414334</v>
       </c>
     </row>
     <row r="63">
@@ -588,7 +596,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="0">
-        <v>5.9275964617339785</v>
+        <v>-3.9058401811417145</v>
       </c>
     </row>
     <row r="64">
@@ -596,7 +604,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="0">
-        <v>4.3512306648972121</v>
+        <v>-2.8591932382377805</v>
       </c>
     </row>
     <row r="65">
@@ -604,7 +612,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="0">
-        <v>4.3666306340271657</v>
+        <v>-2.8693899417839916</v>
       </c>
     </row>
     <row r="66">
@@ -612,7 +620,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="0">
-        <v>5.984478142060655</v>
+        <v>-3.9437174662020507</v>
       </c>
     </row>
     <row r="67">
@@ -620,7 +628,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="0">
-        <v>7.655508245078785</v>
+        <v>-5.0599128078568434</v>
       </c>
     </row>
     <row r="68">
@@ -628,7 +636,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="0">
-        <v>7.7237589577383945</v>
+        <v>-5.10564549730152</v>
       </c>
     </row>
     <row r="69">
@@ -636,7 +644,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="0">
-        <v>7.7923518698502692</v>
+        <v>-5.1516189005051052</v>
       </c>
     </row>
     <row r="70">
@@ -644,7 +652,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="0">
-        <v>7.0382510485008112</v>
+        <v>-4.6468210054578458</v>
       </c>
     </row>
     <row r="71">
@@ -652,7 +660,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="0">
-        <v>7.0808362474980848</v>
+        <v>-4.6752910236797023</v>
       </c>
     </row>
     <row r="72">
@@ -660,7 +668,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="0">
-        <v>6.313243354205591</v>
+        <v>-4.1627921901156366</v>
       </c>
     </row>
     <row r="73">
@@ -668,7 +676,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="0">
-        <v>4.6664182228902513</v>
+        <v>-3.0679974442124336</v>
       </c>
     </row>
     <row r="74">
@@ -676,7 +684,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="0">
-        <v>4.6825804367176183</v>
+        <v>-3.0787108033495136</v>
       </c>
     </row>
     <row r="75">
@@ -684,7 +692,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="0">
-        <v>4.6987816020787099</v>
+        <v>-3.0894505977183599</v>
       </c>
     </row>
     <row r="76">
@@ -692,7 +700,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="0">
-        <v>4.715021798926526</v>
+        <v>-3.100216884884972</v>
       </c>
     </row>
     <row r="77">
@@ -700,7 +708,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="0">
-        <v>3.0513236844769889</v>
+        <v>-2.0004826380116087</v>
       </c>
     </row>
     <row r="78">
@@ -708,7 +716,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="0">
-        <v>1.3629587993183996</v>
+        <v>-0.89096577766892193</v>
       </c>
     </row>
     <row r="79">
@@ -716,7 +724,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="0">
-        <v>1.3538321346308817</v>
+        <v>-0.88498577770495734</v>
       </c>
     </row>
     <row r="80">
@@ -724,7 +732,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="0">
-        <v>1.3447444157500845</v>
+        <v>-0.87903148309580725</v>
       </c>
     </row>
     <row r="81">
@@ -732,7 +740,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="0">
-        <v>2.1680893855436376</v>
+        <v>-1.4192493797287</v>
       </c>
     </row>
     <row r="82">
@@ -740,7 +748,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="0">
-        <v>3.0006743485114522</v>
+        <v>-1.9671032101398838</v>
       </c>
     </row>
     <row r="83">
@@ -748,7 +756,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="0">
-        <v>3.8334505836652788</v>
+        <v>-2.5166804425863711</v>
       </c>
     </row>
     <row r="84">
@@ -756,7 +764,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="0">
-        <v>4.6825804367176183</v>
+        <v>-3.0787108033495136</v>
       </c>
     </row>
     <row r="85">
@@ -764,7 +772,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="0">
-        <v>3.862254801865399</v>
+        <v>-2.535718091721622</v>
       </c>
     </row>
     <row r="86">
@@ -772,7 +780,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="0">
-        <v>3.862254801865399</v>
+        <v>-2.5357180917216704</v>
       </c>
     </row>
     <row r="87">
@@ -780,7 +788,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="0">
-        <v>3.0386028329010695</v>
+        <v>-1.992098660253512</v>
       </c>
     </row>
     <row r="88">
@@ -788,7 +796,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="0">
-        <v>1.3538321346308817</v>
+        <v>-0.88498577770495734</v>
       </c>
     </row>
     <row r="89">
@@ -796,7 +804,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="0">
-        <v>1.3447444157500845</v>
+        <v>-0.87903148309580725</v>
       </c>
     </row>
     <row r="90">
@@ -804,7 +812,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="0">
-        <v>-1.1603403768848159</v>
+        <v>0.75525045347029252</v>
       </c>
     </row>
     <row r="91">
@@ -812,7 +820,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="0">
-        <v>-1.9993786945610919</v>
+        <v>1.299522608528062</v>
       </c>
     </row>
     <row r="92">
@@ -820,7 +828,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="0">
-        <v>0.46066878695793018</v>
+        <v>-0.30067294219684354</v>
       </c>
     </row>
     <row r="93">
@@ -828,7 +836,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="0">
-        <v>2.9135297212955762</v>
+        <v>-1.9096861233256743</v>
       </c>
     </row>
     <row r="94">
@@ -836,7 +844,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="0">
-        <v>5.3927358247717248</v>
+        <v>-3.5500548976159707</v>
       </c>
     </row>
     <row r="95">
@@ -844,7 +852,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="0">
-        <v>7.9074397161546841</v>
+        <v>-5.2287805946507069</v>
       </c>
     </row>
     <row r="96">
@@ -852,7 +860,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="0">
-        <v>8.0002054635091149</v>
+        <v>-5.2909997345563591</v>
       </c>
     </row>
     <row r="97">
@@ -860,7 +868,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="0">
-        <v>7.2095216084693492</v>
+        <v>-4.7613492798587655</v>
       </c>
     </row>
     <row r="98">
@@ -868,7 +876,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="0">
-        <v>8.1170404115658261</v>
+        <v>-5.3693922708955597</v>
       </c>
     </row>
     <row r="99">
@@ -876,7 +884,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="0">
-        <v>8.1876133736809411</v>
+        <v>-5.4167606429276276</v>
       </c>
     </row>
     <row r="100">
@@ -884,7 +892,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="0">
-        <v>7.4051952798848379</v>
+        <v>-4.8922826793129062</v>
       </c>
     </row>
     <row r="101">
@@ -892,7 +900,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="0">
-        <v>7.4491144564910927</v>
+        <v>-4.9216835720038361</v>
       </c>
     </row>
     <row r="102">
@@ -900,7 +908,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="0">
-        <v>8.3775574199997163</v>
+        <v>-5.5443110903887414</v>
       </c>
     </row>
     <row r="103">
@@ -908,7 +916,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="0">
-        <v>8.4494486753033904</v>
+        <v>-5.592610271911779</v>
       </c>
     </row>
     <row r="104">
@@ -916,7 +924,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="0">
-        <v>6.7759856133867302</v>
+        <v>-4.4715817828088245</v>
       </c>
     </row>
     <row r="105">
@@ -924,7 +932,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="0">
-        <v>3.3005483554553572</v>
+        <v>-2.1648153546165401</v>
       </c>
     </row>
     <row r="106">
@@ -932,7 +940,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="0">
-        <v>2.4153658242324938</v>
+        <v>-1.5817952861288649</v>
       </c>
     </row>
     <row r="107">
@@ -940,7 +948,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="0">
-        <v>2.4153658242324938</v>
+        <v>-1.581795286128816</v>
       </c>
     </row>
     <row r="108">
@@ -948,7 +956,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="0">
-        <v>2.4037065313852706</v>
+        <v>-1.5741279689282994</v>
       </c>
     </row>
     <row r="109">
@@ -956,7 +964,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="0">
-        <v>4.1437671709140487</v>
+        <v>-2.7218805293608077</v>
       </c>
     </row>
     <row r="110">
@@ -964,7 +972,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="0">
-        <v>5.0311078784095544</v>
+        <v>-3.3098867310501117</v>
       </c>
     </row>
     <row r="111">
@@ -972,7 +980,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="0">
-        <v>5.0481454992523966</v>
+        <v>-3.3211950043938496</v>
       </c>
     </row>
     <row r="112">
@@ -980,7 +988,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="0">
-        <v>5.065223831222804</v>
+        <v>-3.3325309856694241</v>
       </c>
     </row>
     <row r="113">
@@ -988,7 +996,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="0">
-        <v>5.0823429543340879</v>
+        <v>-3.3438947330460866</v>
       </c>
     </row>
     <row r="114">
@@ -996,7 +1004,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="0">
-        <v>4.2202585313795851</v>
+        <v>-2.7724957372917536</v>
       </c>
     </row>
     <row r="115">
@@ -1004,7 +1012,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="0">
-        <v>3.3412273965215911</v>
+        <v>-2.1916517495316925</v>
       </c>
     </row>
     <row r="116">
@@ -1012,7 +1020,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="0">
-        <v>2.4624093888945651</v>
+        <v>-1.6127349654485201</v>
       </c>
     </row>
     <row r="117">
@@ -1020,7 +1028,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="0">
-        <v>-0.17925919958854716</v>
+        <v>0.11687240538817537</v>
       </c>
     </row>
     <row r="118">
@@ -1028,7 +1036,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="0">
-        <v>-1.0693574458861077</v>
+        <v>0.69613833125763114</v>
       </c>
     </row>
     <row r="119">
@@ -1036,7 +1044,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="0">
-        <v>-1.078425685569419</v>
+        <v>0.70203083498558339</v>
       </c>
     </row>
     <row r="120">
@@ -1044,7 +1052,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="0">
-        <v>-1.0917257696651204</v>
+        <v>0.71067284583998225</v>
       </c>
     </row>
     <row r="121">
@@ -1052,7 +1060,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="0">
-        <v>-1.1003919023641644</v>
+        <v>0.7163036392980815</v>
       </c>
     </row>
     <row r="122">
@@ -1060,7 +1068,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="0">
-        <v>-2.8187265870408562</v>
+        <v>1.8295411774597161</v>
       </c>
     </row>
     <row r="123">
@@ -1068,7 +1076,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="0">
-        <v>-2.8209160424451354</v>
+        <v>1.8309555409022944</v>
       </c>
     </row>
     <row r="124">
@@ -1076,7 +1084,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="0">
-        <v>-0.30064466867242595</v>
+        <v>0.19597204484763323</v>
       </c>
     </row>
     <row r="125">
@@ -1084,7 +1092,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="0">
-        <v>3.8912150497506639</v>
+        <v>-2.5548608118760314</v>
       </c>
     </row>
     <row r="126">
@@ -1092,7 +1100,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="0">
-        <v>7.2960930664983339</v>
+        <v>-4.8192664149317546</v>
       </c>
     </row>
     <row r="127">
@@ -1100,7 +1108,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="0">
-        <v>6.5118534561251522</v>
+        <v>-4.2952625086798886</v>
       </c>
     </row>
     <row r="128">
@@ -1108,7 +1116,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="0">
-        <v>4.8298027750730421</v>
+        <v>-3.1763275345005018</v>
       </c>
     </row>
     <row r="129">
@@ -1116,7 +1124,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="0">
-        <v>3.1414701673273084</v>
+        <v>-2.059906498070236</v>
       </c>
     </row>
     <row r="130">
@@ -1124,7 +1132,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="0">
-        <v>2.2781084278933683</v>
+        <v>-1.4915525813019528</v>
       </c>
     </row>
     <row r="131">
@@ -1132,7 +1140,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="0">
-        <v>3.1284736266008406</v>
+        <v>-2.0513381231813228</v>
       </c>
     </row>
     <row r="132">
@@ -1140,7 +1148,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="0">
-        <v>3.9790383621512344</v>
+        <v>-2.6129239469919705</v>
       </c>
     </row>
     <row r="133">
@@ -1148,7 +1156,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="0">
-        <v>3.9938138776695178</v>
+        <v>-2.6226943343558444</v>
       </c>
     </row>
     <row r="134">
@@ -1156,7 +1164,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="0">
-        <v>3.1414701673273084</v>
+        <v>-2.059906498070236</v>
       </c>
     </row>
     <row r="135">
@@ -1164,7 +1172,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="0">
-        <v>2.2893268299918073</v>
+        <v>-1.4989267346418438</v>
       </c>
     </row>
     <row r="136">
@@ -1172,7 +1180,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="0">
-        <v>-2.8199003395399878</v>
+        <v>1.8302994095942478</v>
       </c>
     </row>
     <row r="137">
@@ -1180,7 +1188,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="0">
-        <v>-12.869799754235002</v>
+        <v>8.2171438627270756</v>
       </c>
     </row>
     <row r="138">
@@ -1188,7 +1196,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="0">
-        <v>-29.63220572804255</v>
+        <v>18.441767242822586</v>
       </c>
     </row>
     <row r="139">
@@ -1196,7 +1204,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="0">
-        <v>-34.138313400368062</v>
+        <v>21.107939719839006</v>
       </c>
     </row>
     <row r="140">
@@ -1204,7 +1212,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="0">
-        <v>-25.34155410241685</v>
+        <v>15.871878286365819</v>
       </c>
     </row>
     <row r="141">
@@ -1212,7 +1220,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="0">
-        <v>-11.825397396807698</v>
+        <v>7.5629109478290788</v>
       </c>
     </row>
     <row r="142">
@@ -1220,7 +1228,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="0">
-        <v>-1.3366662715203825</v>
+        <v>0.86975856404323837</v>
       </c>
     </row>
     <row r="143">
@@ -1228,7 +1236,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="0">
-        <v>0.73686096618513519</v>
+        <v>-0.4811679243720432</v>
       </c>
     </row>
     <row r="144">
@@ -1236,7 +1244,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="0">
-        <v>2.813421768692959</v>
+        <v>-1.8437494448465024</v>
       </c>
     </row>
     <row r="145">
@@ -1244,7 +1252,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="0">
-        <v>5.6026965087280569</v>
+        <v>-3.6896381855018956</v>
       </c>
     </row>
     <row r="146">
@@ -1252,7 +1260,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="0">
-        <v>9.1885089829529463</v>
+        <v>-6.0898752228613784</v>
       </c>
     </row>
     <row r="147">
@@ -1260,7 +1268,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="0">
-        <v>12.923275452611302</v>
+        <v>-8.6236787464667408</v>
       </c>
     </row>
     <row r="148">
@@ -1268,7 +1276,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="0">
-        <v>16.177586662405329</v>
+        <v>-10.86091108145094</v>
       </c>
     </row>
     <row r="149">
@@ -1276,7 +1284,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="0">
-        <v>18.119932376636473</v>
+        <v>-12.209737856770758</v>
       </c>
     </row>
     <row r="150">
@@ -1284,7 +1292,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="0">
-        <v>15.580202523950186</v>
+        <v>-10.448124304623507</v>
       </c>
     </row>
     <row r="151">
@@ -1292,7 +1300,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="0">
-        <v>10.383577812943951</v>
+        <v>-6.8968236947562405</v>
       </c>
     </row>
     <row r="152">
@@ -1300,7 +1308,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="0">
-        <v>7.3636566353057749</v>
+        <v>-4.8644796918969853</v>
       </c>
     </row>
     <row r="153">
@@ -1308,7 +1316,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="0">
-        <v>5.0464886533438991</v>
+        <v>-3.3200952863935971</v>
       </c>
     </row>
     <row r="154">
@@ -1316,7 +1324,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="0">
-        <v>5.0634459272961756</v>
+        <v>-3.3313508450383038</v>
       </c>
     </row>
     <row r="155">
@@ -1324,7 +1332,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="0">
-        <v>5.0974712476997999</v>
+        <v>-3.3539375345343689</v>
       </c>
     </row>
     <row r="156">
@@ -1332,7 +1340,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="0">
-        <v>5.1145394540694751</v>
+        <v>-3.3652687807138255</v>
       </c>
     </row>
     <row r="157">
@@ -1340,7 +1348,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="0">
-        <v>6.744427719683963</v>
+        <v>-4.4505067489474239</v>
       </c>
     </row>
     <row r="158">
@@ -1348,7 +1356,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="0">
-        <v>9.2175934074579828</v>
+        <v>-6.1094717828955973</v>
       </c>
     </row>
     <row r="159">
@@ -1356,7 +1364,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="0">
-        <v>8.5362839993152093</v>
+        <v>-5.6509663352202217</v>
       </c>
     </row>
     <row r="160">
@@ -1364,7 +1372,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="0">
-        <v>7.7694494099579989</v>
+        <v>-5.1362675860646068</v>
       </c>
     </row>
     <row r="161">
@@ -1372,7 +1380,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="0">
-        <v>10.331526923382185</v>
+        <v>-6.8616029717692149</v>
       </c>
     </row>
     <row r="162">
@@ -1380,7 +1388,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="0">
-        <v>7.9769557498412249</v>
+        <v>-5.2754038913335028</v>
       </c>
     </row>
     <row r="163">
@@ -1388,7 +1396,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="0">
-        <v>4.6664182228902513</v>
+        <v>-3.0679974442124336</v>
       </c>
     </row>
     <row r="164">
@@ -1396,7 +1404,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="0">
-        <v>4.6825804367176183</v>
+        <v>-3.0787108033495136</v>
       </c>
     </row>
     <row r="165">
@@ -1404,7 +1412,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="0">
-        <v>8.0468219260110434</v>
+        <v>-5.3222739023703483</v>
       </c>
     </row>
     <row r="166">
@@ -1412,7 +1420,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="0">
-        <v>9.8570737073495867</v>
+        <v>-6.5408725718155027</v>
       </c>
     </row>
     <row r="167">
@@ -1420,7 +1428,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="0">
-        <v>6.5319311959756066</v>
+        <v>-4.308659358090221</v>
       </c>
     </row>
     <row r="168">
@@ -1428,7 +1436,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="0">
-        <v>3.9938138776695178</v>
+        <v>-2.6226943343558444</v>
       </c>
     </row>
     <row r="169">
@@ -1436,7 +1444,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="0">
-        <v>2.2893268299918073</v>
+        <v>-1.4989267346418438</v>
       </c>
     </row>
     <row r="170">
@@ -1444,7 +1452,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="0">
-        <v>1.4279426256650478</v>
+        <v>-0.93355011801239662</v>
       </c>
     </row>
     <row r="171">
@@ -1452,7 +1460,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="0">
-        <v>-1.9730301175012788</v>
+        <v>1.282454069452452</v>
       </c>
     </row>
     <row r="172">
@@ -1460,7 +1468,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="0">
-        <v>-6.1746702326552567</v>
+        <v>3.9854336495509077</v>
       </c>
     </row>
     <row r="173">
@@ -1468,7 +1476,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="0">
-        <v>-6.133336154388922</v>
+        <v>3.9590246802185498</v>
       </c>
     </row>
     <row r="174">
@@ -1476,7 +1484,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="0">
-        <v>-3.6424043904505692</v>
+        <v>2.3608991718054706</v>
       </c>
     </row>
     <row r="175">
@@ -1484,7 +1492,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="0">
-        <v>-1.1954468344147891</v>
+        <v>0.77805444769991472</v>
       </c>
     </row>
     <row r="176">
@@ -1492,7 +1500,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="0">
-        <v>-0.39148398771333731</v>
+        <v>0.2551451838925653</v>
       </c>
     </row>
     <row r="177">
@@ -1500,7 +1508,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="0">
-        <v>0.40571156663408003</v>
+        <v>-0.2647781149212331</v>
       </c>
     </row>
     <row r="178">
@@ -1508,7 +1516,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="0">
-        <v>1.2045725560865674</v>
+        <v>-0.78721419716954799</v>
       </c>
     </row>
     <row r="179">
@@ -1516,7 +1524,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="0">
-        <v>-0.41125584996075804</v>
+        <v>0.26802223740135067</v>
       </c>
     </row>
     <row r="180">
@@ -1524,7 +1532,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="0">
-        <v>-7.6023286384624118</v>
+        <v>4.8954121457139843</v>
       </c>
     </row>
     <row r="181">
@@ -1532,7 +1540,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="0">
-        <v>-12.15925468636306</v>
+        <v>7.7722772315044137</v>
       </c>
     </row>
     <row r="182">
@@ -1540,7 +1548,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="0">
-        <v>-11.196310880274481</v>
+        <v>7.1678069382940466</v>
       </c>
     </row>
     <row r="183">
@@ -1548,7 +1556,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="0">
-        <v>-9.5154869818373342</v>
+        <v>6.1082967657815281</v>
       </c>
     </row>
     <row r="184">
@@ -1556,7 +1564,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="0">
-        <v>-2.7774699259390943</v>
+        <v>1.8028879047291555</v>
       </c>
     </row>
     <row r="185">
@@ -1564,7 +1572,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="0">
-        <v>6.7984040987322416</v>
+        <v>-4.4865547805393726</v>
       </c>
     </row>
     <row r="186">
@@ -1572,7 +1580,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="0">
-        <v>12.917832223833877</v>
+        <v>-8.6199599782330623</v>
       </c>
     </row>
     <row r="187">
@@ -1580,7 +1588,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="0">
-        <v>13.20511972326107</v>
+        <v>-8.8163373023155867</v>
       </c>
     </row>
     <row r="188">
@@ -1588,7 +1596,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="0">
-        <v>10.325254906423902</v>
+        <v>-6.8573594115654055</v>
       </c>
     </row>
     <row r="189">
@@ -1596,7 +1604,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="0">
-        <v>3.4196764459665752</v>
+        <v>-2.2434162277429182</v>
       </c>
     </row>
     <row r="190">
@@ -1604,7 +1612,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="0">
-        <v>-2.035020942188758</v>
+        <v>1.3226091555909643</v>
       </c>
     </row>
     <row r="191">
@@ -1612,7 +1620,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="0">
-        <v>-2.0369417088436217</v>
+        <v>1.3238532148589088</v>
       </c>
     </row>
     <row r="192">
@@ -1620,7 +1628,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="0">
-        <v>1.0122570747986361</v>
+        <v>-0.66131325221635096</v>
       </c>
     </row>
     <row r="193">
@@ -1628,7 +1636,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="0">
-        <v>5.6115348040598922</v>
+        <v>-3.6955162371989072</v>
       </c>
     </row>
     <row r="194">
@@ -1636,7 +1644,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="0">
-        <v>8.7522892627062792</v>
+        <v>-5.7962090187270379</v>
       </c>
     </row>
     <row r="195">
@@ -1644,7 +1652,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="0">
-        <v>9.6611105040973975</v>
+        <v>-6.4085654848657878</v>
       </c>
     </row>
     <row r="196">
@@ -1652,7 +1660,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="0">
-        <v>8.1957106442830021</v>
+        <v>-5.4221962868109754</v>
       </c>
     </row>
     <row r="197">
@@ -1660,7 +1668,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="0">
-        <v>7.4751628508018717</v>
+        <v>-4.9391234044721894</v>
       </c>
     </row>
     <row r="198">
@@ -1668,7 +1676,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="0">
-        <v>4.3512306648972121</v>
+        <v>-2.8591932382377312</v>
       </c>
     </row>
     <row r="199">
@@ -1676,7 +1684,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="0">
-        <v>-1.2296841120618447</v>
+        <v>0.80029124162624254</v>
       </c>
     </row>
     <row r="200">
@@ -1684,7 +1692,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="0">
-        <v>-4.3891440187455801</v>
+        <v>2.8413684727891337</v>
       </c>
     </row>
     <row r="201">
@@ -1692,7 +1700,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="0">
-        <v>-5.1447878820108528</v>
+        <v>3.326361584097111</v>
       </c>
     </row>
     <row r="202">
@@ -1700,7 +1708,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="0">
-        <v>-2.8057269285642388</v>
+        <v>1.821143331779004</v>
       </c>
     </row>
     <row r="203">
@@ -1708,7 +1716,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="0">
-        <v>1.0274831916263842</v>
+        <v>-0.67127811781110325</v>
       </c>
     </row>
     <row r="204">
@@ -1716,7 +1724,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="0">
-        <v>1.7941363069306238</v>
+        <v>-1.1736981984203516</v>
       </c>
     </row>
     <row r="205">
@@ -1724,7 +1732,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="0">
-        <v>1.0198522525300235</v>
+        <v>-0.66628391755226124</v>
       </c>
     </row>
     <row r="206">
@@ -1732,7 +1740,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="0">
-        <v>1.775357292452183</v>
+        <v>-1.1613756068218535</v>
       </c>
     </row>
     <row r="207">
@@ -1740,7 +1748,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="0">
-        <v>3.3020396926585893</v>
+        <v>-2.1657991380313608</v>
       </c>
     </row>
     <row r="208">
@@ -1748,7 +1756,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="0">
-        <v>5.6115348040598922</v>
+        <v>-3.6955162371989072</v>
       </c>
     </row>
     <row r="209">
@@ -1756,7 +1764,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="0">
-        <v>8.7522892627062792</v>
+        <v>-5.7962090187270379</v>
       </c>
     </row>
     <row r="210">
@@ -1764,7 +1772,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="0">
-        <v>7.3193118841983633</v>
+        <v>-4.8348031107602294</v>
       </c>
     </row>
     <row r="211">
@@ -1772,7 +1780,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="0">
-        <v>-0.47139889369655452</v>
+        <v>0.30718697719966237</v>
       </c>
     </row>
     <row r="212">
@@ -1780,7 +1788,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="0">
-        <v>-8.200415690406464</v>
+        <v>5.275381337209291</v>
       </c>
     </row>
     <row r="213">
@@ -1788,7 +1796,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="0">
-        <v>-12.598825711538328</v>
+        <v>8.0476053067140629</v>
       </c>
     </row>
     <row r="214">
@@ -1796,7 +1804,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="0">
-        <v>-11.594376293422988</v>
+        <v>7.4179064506621479</v>
       </c>
     </row>
     <row r="215">
@@ -1804,7 +1812,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="0">
-        <v>-8.5288932774550883</v>
+        <v>5.4837549568594248</v>
       </c>
     </row>
     <row r="216">
@@ -1812,7 +1820,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="0">
-        <v>-2.7463524616095811</v>
+        <v>1.7827824811636626</v>
       </c>
     </row>
     <row r="217">
@@ -1820,7 +1828,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="0">
-        <v>4.351096738758744</v>
+        <v>-2.8591045648357123</v>
       </c>
     </row>
     <row r="218">
@@ -1828,7 +1836,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="0">
-        <v>9.411447182157465</v>
+        <v>-6.2401404880052711</v>
       </c>
     </row>
     <row r="219">
@@ -1836,7 +1844,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="0">
-        <v>14.716711266733366</v>
+        <v>-9.8531451897508369</v>
       </c>
     </row>
     <row r="220">
@@ -1844,7 +1852,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="0">
-        <v>15.125944901317101</v>
+        <v>-10.13487584990752</v>
       </c>
     </row>
     <row r="221">
@@ -1852,7 +1860,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="0">
-        <v>10.853090626150129</v>
+        <v>-7.2148318263198252</v>
       </c>
     </row>
     <row r="222">
@@ -1860,7 +1868,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="0">
-        <v>6.3773812194756694</v>
+        <v>-4.20556097091879</v>
       </c>
     </row>
     <row r="223">
@@ -1868,7 +1876,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="0">
-        <v>4.8623710104963607</v>
+        <v>-3.1979289991299815</v>
       </c>
     </row>
     <row r="224">
@@ -1876,7 +1884,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="0">
-        <v>7.9806067646789556</v>
+        <v>-5.2778528946276202</v>
       </c>
     </row>
     <row r="225">
@@ -1884,7 +1892,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="0">
-        <v>9.6611105040973975</v>
+        <v>-6.4085654848657878</v>
       </c>
     </row>
     <row r="226">
@@ -1892,7 +1900,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="0">
-        <v>8.9834443343035701</v>
+        <v>-5.9517657409033369</v>
       </c>
     </row>
     <row r="227">
@@ -1900,7 +1908,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="0">
-        <v>9.087137478713645</v>
+        <v>-6.0215892937173301</v>
       </c>
     </row>
     <row r="228">
@@ -1908,7 +1916,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="0">
-        <v>8.3894235371013117</v>
+        <v>-5.5522823097110363</v>
       </c>
     </row>
     <row r="229">
@@ -1916,7 +1924,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="0">
-        <v>8.4626836088263246</v>
+        <v>-5.6015033672796104</v>
       </c>
     </row>
     <row r="230">
@@ -1924,7 +1932,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="0">
-        <v>11.819960497829291</v>
+        <v>-7.8714639351987881</v>
       </c>
     </row>
     <row r="231">
@@ -1932,7 +1940,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="0">
-        <v>12.043291485761294</v>
+        <v>-8.023473553906328</v>
       </c>
     </row>
     <row r="232">
@@ -1940,7 +1948,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="0">
-        <v>8.8341321066794354</v>
+        <v>-5.8512704227400381</v>
       </c>
     </row>
     <row r="233">
@@ -1948,7 +1956,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="0">
-        <v>7.2311056010328789</v>
+        <v>-4.7757874812053398</v>
       </c>
     </row>
     <row r="234">
@@ -1956,7 +1964,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="0">
-        <v>3.9057538845246116</v>
+        <v>-2.5644717156503778</v>
       </c>
     </row>
     <row r="235">
@@ -1964,7 +1972,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="0">
-        <v>2.2116268760954476</v>
+        <v>-1.4478583941056711</v>
       </c>
     </row>
     <row r="236">
@@ -1972,7 +1980,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="0">
-        <v>2.2116268760954476</v>
+        <v>-1.4478583941056955</v>
       </c>
     </row>
     <row r="237">
@@ -1980,7 +1988,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="0">
-        <v>2.2006840167163166</v>
+        <v>-1.4406673010343447</v>
       </c>
     </row>
     <row r="238">
@@ -1988,7 +1996,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="0">
-        <v>3.0386028329010695</v>
+        <v>-1.992098660253512</v>
       </c>
     </row>
     <row r="239">
@@ -1996,7 +2004,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="0">
-        <v>2.2006840167163166</v>
+        <v>-1.4406673010342712</v>
       </c>
     </row>
     <row r="240">
@@ -2004,7 +2012,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="0">
-        <v>1.3538321346308817</v>
+        <v>-0.88498577770495734</v>
       </c>
     </row>
     <row r="241">
@@ -2012,7 +2020,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="0">
-        <v>2.1789153511664368</v>
+        <v>-1.4263628491721296</v>
       </c>
     </row>
     <row r="242">
@@ -2020,7 +2028,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="0">
-        <v>2.1789153511657879</v>
+        <v>-1.4263628491720808</v>
       </c>
     </row>
     <row r="243">
@@ -2028,7 +2036,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="0">
-        <v>1.3356955630271561</v>
+        <v>-0.87310283923765963</v>
       </c>
     </row>
     <row r="244">
@@ -2036,7 +2044,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="0">
-        <v>2.9881092778264788</v>
+        <v>-1.9588233676684119</v>
       </c>
     </row>
     <row r="245">
@@ -2044,7 +2052,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="0">
-        <v>4.6664182228902513</v>
+        <v>-3.0679974442124336</v>
       </c>
     </row>
     <row r="246">
@@ -2052,7 +2060,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="0">
-        <v>5.5175200007784984</v>
+        <v>-3.6329996667089719</v>
       </c>
     </row>
     <row r="247">
@@ -2060,7 +2068,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="0">
-        <v>7.2311056010328789</v>
+        <v>-4.7757874812053398</v>
       </c>
     </row>
     <row r="248">
@@ -2068,7 +2076,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="0">
-        <v>8.9851544458029764</v>
+        <v>-5.9529170583599704</v>
       </c>
     </row>
     <row r="249">
@@ -2076,7 +2084,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="0">
-        <v>7.3832954858395512</v>
+        <v>-4.8776240079224173</v>
       </c>
     </row>
     <row r="250">
@@ -2084,7 +2092,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="0">
-        <v>3.9938138776695178</v>
+        <v>-2.6226943343558444</v>
       </c>
     </row>
     <row r="251">
@@ -2092,7 +2100,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="0">
-        <v>3.1414701673273084</v>
+        <v>-2.059906498070236</v>
       </c>
     </row>
     <row r="252">
@@ -2100,7 +2108,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="0">
-        <v>3.1414701673273084</v>
+        <v>-2.059906498070236</v>
       </c>
     </row>
     <row r="253">
@@ -2108,7 +2116,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="0">
-        <v>3.1414701673273084</v>
+        <v>-2.059906498070236</v>
       </c>
     </row>
     <row r="254">
@@ -2116,7 +2124,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="0">
-        <v>3.9938138776695178</v>
+        <v>-2.6226943343557951</v>
       </c>
     </row>
     <row r="255">
@@ -2124,7 +2132,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="0">
-        <v>4.8629531809756346</v>
+        <v>-3.1983151568167156</v>
       </c>
     </row>
     <row r="256">
@@ -2132,7 +2140,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="0">
-        <v>4.0234841678818265</v>
+        <v>-2.6423155061731944</v>
       </c>
     </row>
     <row r="257">
@@ -2140,7 +2148,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="0">
-        <v>2.311882760555164</v>
+        <v>-1.5137542167843703</v>
       </c>
     </row>
     <row r="258">
@@ -2148,7 +2156,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="0">
-        <v>6.5722059334624996</v>
+        <v>-4.3355355472964838</v>
       </c>
     </row>
     <row r="259">
@@ -2156,7 +2164,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="0">
-        <v>10.130194645158065</v>
+        <v>-6.7254335495526609</v>
       </c>
     </row>
     <row r="260">
@@ -2164,7 +2172,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="0">
-        <v>7.6040956772319408</v>
+        <v>-5.025470315144692</v>
       </c>
     </row>
     <row r="261">
@@ -2172,7 +2180,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="0">
-        <v>5.0311078784095544</v>
+        <v>-3.3098867310501117</v>
       </c>
     </row>
     <row r="262">
@@ -2180,7 +2188,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="0">
-        <v>3.2870701045589494</v>
+        <v>-2.1559244532856647</v>
       </c>
     </row>
     <row r="263">
@@ -2188,7 +2196,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="0">
-        <v>3.2870701045589494</v>
+        <v>-2.1559244532856647</v>
       </c>
     </row>
     <row r="264">
@@ -2196,7 +2204,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="0">
-        <v>3.2870701045589494</v>
+        <v>-2.1559244532856647</v>
       </c>
     </row>
     <row r="265">
@@ -2204,7 +2212,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="0">
-        <v>2.4153658242324938</v>
+        <v>-1.581795286128816</v>
       </c>
     </row>
     <row r="266">
@@ -2212,7 +2220,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="0">
-        <v>1.5339893088724279</v>
+        <v>-1.0030637545498722</v>
       </c>
     </row>
     <row r="267">
@@ -2220,7 +2228,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="0">
-        <v>-3.679134271846737</v>
+        <v>2.3845598497018727</v>
       </c>
     </row>
     <row r="268">
@@ -2228,7 +2236,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="0">
-        <v>-7.0875191448507131</v>
+        <v>4.5677620673138017</v>
       </c>
     </row>
     <row r="269">
@@ -2236,7 +2244,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="0">
-        <v>-2.820916042444487</v>
+        <v>1.8309555409022453</v>
       </c>
     </row>
     <row r="270">
@@ -2244,7 +2252,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="0">
-        <v>-1.1374220097125369</v>
+        <v>0.74036197749185029</v>
       </c>
     </row>
     <row r="271">
@@ -2252,7 +2260,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="0">
-        <v>-3.6593344309559708</v>
+        <v>2.3718055345790634</v>
       </c>
     </row>
     <row r="272">
@@ -2260,7 +2268,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="0">
-        <v>-5.3061962671825036</v>
+        <v>3.4298017168308168</v>
       </c>
     </row>
     <row r="273">
@@ -2268,7 +2276,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="0">
-        <v>-2.8235600000635088</v>
+        <v>1.832663493837563</v>
       </c>
     </row>
     <row r="274">
@@ -2276,7 +2284,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="0">
-        <v>-0.37625846184144485</v>
+        <v>0.24522848546238166</v>
       </c>
     </row>
     <row r="275">
@@ -2284,7 +2292,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="0">
-        <v>-0.38644671908919187</v>
+        <v>0.25186436406213469</v>
       </c>
     </row>
     <row r="276">
@@ -2292,7 +2300,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="0">
-        <v>-0.39648345563816434</v>
+        <v>0.25840132812795424</v>
       </c>
     </row>
     <row r="277">
@@ -2300,7 +2308,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="0">
-        <v>-0.40636930729006637</v>
+        <v>0.26483980188285883</v>
       </c>
     </row>
     <row r="278">
@@ -2308,7 +2316,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="0">
-        <v>-0.41610490982001302</v>
+        <v>0.27118020932319453</v>
       </c>
     </row>
     <row r="279">
@@ -2316,7 +2324,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="0">
-        <v>-1.2237959117313952</v>
+        <v>0.79646709363628543</v>
       </c>
     </row>
     <row r="280">
@@ -2324,7 +2332,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="0">
-        <v>-1.2325725620464363</v>
+        <v>0.80216714522277588</v>
       </c>
     </row>
     <row r="281">
@@ -2332,7 +2340,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="0">
-        <v>-1.2382385585970512</v>
+        <v>0.80584687294217738</v>
       </c>
     </row>
     <row r="282">
@@ -2340,7 +2348,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="0">
-        <v>-5.1634746111315541</v>
+        <v>3.338339963256403</v>
       </c>
     </row>
     <row r="283">
@@ -2348,7 +2356,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="0">
-        <v>-8.200415690406464</v>
+        <v>5.275381337209315</v>
       </c>
     </row>
     <row r="284">
@@ -2356,7 +2364,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="0">
-        <v>-8.8625069826967842</v>
+        <v>5.6951622669179889</v>
       </c>
     </row>
     <row r="285">
@@ -2364,7 +2372,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="0">
-        <v>-17.645638219073803</v>
+        <v>11.182137576120804</v>
       </c>
     </row>
     <row r="286">
@@ -2372,7 +2380,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="0">
-        <v>-21.890434677348093</v>
+        <v>13.781893986790944</v>
       </c>
     </row>
     <row r="287">
@@ -2380,7 +2388,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="0">
-        <v>-15.687942942911262</v>
+        <v>9.971964747668089</v>
       </c>
     </row>
     <row r="288">
@@ -2388,7 +2396,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="0">
-        <v>-16.610969616809207</v>
+        <v>10.543438401688306</v>
       </c>
     </row>
     <row r="289">
@@ -2396,7 +2404,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="0">
-        <v>-15.922982695635339</v>
+        <v>10.117637121054633</v>
       </c>
     </row>
     <row r="290">
@@ -2404,7 +2412,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="0">
-        <v>-9.3384312523762762</v>
+        <v>5.996360221071054</v>
       </c>
     </row>
     <row r="291">
@@ -2412,7 +2420,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="0">
-        <v>-6.7663716439208414</v>
+        <v>4.3630912090828291</v>
       </c>
     </row>
     <row r="292">
@@ -2420,7 +2428,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="0">
-        <v>-7.2392952671423121</v>
+        <v>4.6644165705264227</v>
       </c>
     </row>
     <row r="293">
@@ -2428,7 +2436,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="0">
-        <v>-7.6654972949312041</v>
+        <v>4.93557826079281</v>
       </c>
     </row>
     <row r="294">
@@ -2436,7 +2444,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="0">
-        <v>-9.1836140485307638</v>
+        <v>5.8984313406497275</v>
       </c>
     </row>
     <row r="295">
@@ -2444,7 +2452,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="0">
-        <v>-9.9784329298248267</v>
+        <v>6.4006784662914402</v>
       </c>
     </row>
     <row r="296">
@@ -2452,7 +2460,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="0">
-        <v>-8.1071172201673072</v>
+        <v>5.2161562607251097</v>
       </c>
     </row>
     <row r="297">
@@ -2460,7 +2468,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="0">
-        <v>-4.8477304063166429</v>
+        <v>3.1358459045497704</v>
       </c>
     </row>
     <row r="298">
@@ -2468,7 +2476,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="0">
-        <v>0.24501929503290262</v>
+        <v>-0.15986212162992222</v>
       </c>
     </row>
     <row r="299">
@@ -2476,7 +2484,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="0">
-        <v>6.8535826029007012</v>
+        <v>-4.5234128961942757</v>
       </c>
     </row>
     <row r="300">
@@ -2484,7 +2492,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="0">
-        <v>16.016838085527631</v>
+        <v>-10.749741067512504</v>
       </c>
     </row>
     <row r="301">
@@ -2492,7 +2500,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="0">
-        <v>23.265334048150752</v>
+        <v>-15.833931922869454</v>
       </c>
     </row>
     <row r="302">
@@ -2500,7 +2508,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="0">
-        <v>26.605316147666908</v>
+        <v>-18.227992270189166</v>
       </c>
     </row>
     <row r="303">
@@ -2508,7 +2516,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="0">
-        <v>27.806309403859881</v>
+        <v>-19.097191463590587</v>
       </c>
     </row>
     <row r="304">
@@ -2516,7 +2524,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="0">
-        <v>25.34960354334055</v>
+        <v>-17.323953492590121</v>
       </c>
     </row>
     <row r="305">
@@ -2524,7 +2532,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="0">
-        <v>20.918365340178703</v>
+        <v>-14.171446418135014</v>
       </c>
     </row>
     <row r="306">
@@ -2532,7 +2540,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="0">
-        <v>16.540391361826913</v>
+        <v>-11.112074600826411</v>
       </c>
     </row>
     <row r="307">
@@ -2540,7 +2548,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="0">
-        <v>14.025471949089818</v>
+        <v>-9.3782773124327363</v>
       </c>
     </row>
     <row r="308">
@@ -2548,7 +2556,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="0">
-        <v>12.066615591593683</v>
+        <v>-8.0393564027189353</v>
       </c>
     </row>
     <row r="309">
@@ -2556,7 +2564,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="0">
-        <v>10.0070635567323</v>
+        <v>-6.6422048656106201</v>
       </c>
     </row>
     <row r="310">
@@ -2564,7 +2572,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="0">
-        <v>9.3609634852051506</v>
+        <v>-6.2061025722135463</v>
       </c>
     </row>
     <row r="311">
@@ -2572,7 +2580,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="0">
-        <v>10.26707755999975</v>
+        <v>-6.8180021230391405</v>
       </c>
     </row>
     <row r="312">
@@ -2580,7 +2588,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="0">
-        <v>10.412794052328028</v>
+        <v>-6.9165961172691519</v>
       </c>
     </row>
     <row r="313">
@@ -2588,7 +2596,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="0">
-        <v>9.771349524937861</v>
+        <v>-6.4829830091161105</v>
       </c>
     </row>
     <row r="314">
@@ -2596,7 +2604,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="0">
-        <v>8.2922690801074825</v>
+        <v>-5.4870276857798848</v>
       </c>
     </row>
     <row r="315">
@@ -2604,7 +2612,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="0">
-        <v>6.7651697145116199</v>
+        <v>-4.4643584252572124</v>
       </c>
     </row>
     <row r="316">
@@ -2612,7 +2620,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="0">
-        <v>6.0035135622089557</v>
+        <v>-3.9563947990512256</v>
       </c>
     </row>
     <row r="317">
@@ -2620,7 +2628,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="0">
-        <v>5.2350612239886223</v>
+        <v>-3.4453003860627738</v>
       </c>
     </row>
     <row r="318">
@@ -2628,7 +2636,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="0">
-        <v>6.0608455234688776</v>
+        <v>-3.9945823316386146</v>
       </c>
     </row>
     <row r="319">
@@ -2636,7 +2644,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="0">
-        <v>6.932459924919435</v>
+        <v>-4.5761140708132588</v>
       </c>
     </row>
     <row r="320">
@@ -2644,7 +2652,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="0">
-        <v>5.3398347500243837</v>
+        <v>-3.5149023751376691</v>
       </c>
     </row>
     <row r="321">
@@ -2652,7 +2660,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="0">
-        <v>6.9958197413020313</v>
+        <v>-4.6184582229549038</v>
       </c>
     </row>
     <row r="322">
@@ -2660,7 +2668,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="0">
-        <v>8.7342319738679102</v>
+        <v>-5.7840628391862703</v>
       </c>
     </row>
     <row r="323">
@@ -2668,7 +2676,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="0">
-        <v>7.9769557498412249</v>
+        <v>-5.2754038913335028</v>
       </c>
     </row>
     <row r="324">
@@ -2676,7 +2684,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="0">
-        <v>10.559885705884511</v>
+        <v>-7.016174645380862</v>
       </c>
     </row>
     <row r="325">
@@ -2684,7 +2692,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="0">
-        <v>13.279780803696044</v>
+        <v>-8.8674074572789525</v>
       </c>
     </row>
     <row r="326">
@@ -2692,7 +2700,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="0">
-        <v>14.346426580806689</v>
+        <v>-9.5986103038069963</v>
       </c>
     </row>
     <row r="327">
@@ -2700,7 +2708,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="0">
-        <v>15.474591127844212</v>
+        <v>-10.375247324934435</v>
       </c>
     </row>
     <row r="328">
@@ -2708,7 +2716,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="0">
-        <v>14.859035611260417</v>
+        <v>-9.9510758404339548</v>
       </c>
     </row>
     <row r="329">
@@ -2716,7 +2724,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="0">
-        <v>15.081203230175808</v>
+        <v>-10.104052482187591</v>
       </c>
     </row>
     <row r="330">
@@ -2724,7 +2732,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="0">
-        <v>16.250992249445893</v>
+        <v>-10.91169984531796</v>
       </c>
     </row>
     <row r="331">
@@ -2732,7 +2740,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="0">
-        <v>16.52672680812325</v>
+        <v>-11.102608415640875</v>
       </c>
     </row>
     <row r="332">
@@ -2740,7 +2748,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="0">
-        <v>16.804577439181571</v>
+        <v>-11.295190231446577</v>
       </c>
     </row>
     <row r="333">
@@ -2748,7 +2756,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="0">
-        <v>17.084571968964589</v>
+        <v>-11.489470124401899</v>
       </c>
     </row>
     <row r="334">
@@ -2756,7 +2764,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="0">
-        <v>17.366738236233719</v>
+        <v>-11.685473095057523</v>
       </c>
     </row>
     <row r="335">
@@ -2764,7 +2772,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="0">
-        <v>17.651104092339931</v>
+        <v>-11.883224316439202</v>
       </c>
     </row>
     <row r="336">
@@ -2772,7 +2780,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="0">
-        <v>16.953734482499044</v>
+        <v>-11.39865932662774</v>
       </c>
     </row>
     <row r="337">
@@ -2780,7 +2788,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="0">
-        <v>16.195967052488449</v>
+        <v>-10.873626969454516</v>
       </c>
     </row>
     <row r="338">
@@ -2788,7 +2796,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="0">
-        <v>15.41863621602362</v>
+        <v>-10.336647801823908</v>
       </c>
     </row>
     <row r="339">
@@ -2796,7 +2804,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="0">
-        <v>10.535439858662485</v>
+        <v>-6.9996214572545057</v>
       </c>
     </row>
     <row r="340">
@@ -2804,7 +2812,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="0">
-        <v>6.508842878610686</v>
+        <v>-4.2932537875684975</v>
       </c>
     </row>
     <row r="341">
@@ -2812,7 +2820,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="0">
-        <v>7.5442487469766597</v>
+        <v>-4.9853855309222173</v>
       </c>
     </row>
     <row r="342">
@@ -2820,7 +2828,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="0">
-        <v>9.6267624362657251</v>
+        <v>-6.3853847938294388</v>
       </c>
     </row>
     <row r="343">
@@ -2828,7 +2836,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="0">
-        <v>9.704891103375866</v>
+        <v>-6.4381162228668858</v>
       </c>
     </row>
     <row r="344">
@@ -2836,7 +2844,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="0">
-        <v>8.7292408880278654</v>
+        <v>-5.7807057423133523</v>
       </c>
     </row>
     <row r="345">
@@ -2844,7 +2852,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="0">
-        <v>7.7469325311291879</v>
+        <v>-5.1211759677151356</v>
       </c>
     </row>
     <row r="346">
@@ -2852,7 +2860,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="0">
-        <v>8.8027268053811021</v>
+        <v>-5.8301399294957896</v>
       </c>
     </row>
     <row r="347">
@@ -2860,7 +2868,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="0">
-        <v>10.954319206826948</v>
+        <v>-7.2834682951559975</v>
       </c>
     </row>
     <row r="348">
@@ -2868,7 +2876,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="0">
-        <v>8.950994572473487</v>
+        <v>-5.9299205936577417</v>
       </c>
     </row>
     <row r="349">
@@ -2876,7 +2884,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="0">
-        <v>6.8851159725833213</v>
+        <v>-4.5444798358798568</v>
       </c>
     </row>
     <row r="350">
@@ -2884,7 +2892,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="0">
-        <v>6.9064755761098642</v>
+        <v>-4.558751205853202</v>
       </c>
     </row>
     <row r="351">
@@ -2892,7 +2900,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="0">
-        <v>5.8793907742085265</v>
+        <v>-3.8737462393345212</v>
       </c>
     </row>
     <row r="352">
@@ -2900,7 +2908,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="0">
-        <v>3.783314987619991</v>
+        <v>-2.4835487904590199</v>
       </c>
     </row>
     <row r="353">
@@ -2908,7 +2916,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="0">
-        <v>2.7214494318791536</v>
+        <v>-1.7831916433809054</v>
       </c>
     </row>
     <row r="354">
@@ -2916,7 +2924,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="0">
-        <v>1.6634926704670068</v>
+        <v>-1.0879878171508384</v>
       </c>
     </row>
     <row r="355">
@@ -2924,7 +2932,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="0">
-        <v>0.59886055650714021</v>
+        <v>-0.39096157818911248</v>
       </c>
     </row>
     <row r="356">
@@ -2932,7 +2940,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="0">
-        <v>0.57784339087552627</v>
+        <v>-0.37722709465558363</v>
       </c>
     </row>
     <row r="357">
@@ -2940,7 +2948,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="0">
-        <v>1.5897738923787723</v>
+        <v>-1.0396407945150126</v>
       </c>
     </row>
     <row r="358">
@@ -2948,7 +2956,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="0">
-        <v>2.6089266366323645</v>
+        <v>-1.7091291215118201</v>
       </c>
     </row>
     <row r="359">
@@ -2956,7 +2964,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="0">
-        <v>2.5950768744141026</v>
+        <v>-1.7000152137072568</v>
       </c>
     </row>
     <row r="360">
@@ -2964,7 +2972,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="0">
-        <v>0.52613750868604803</v>
+        <v>-0.3434420915621425</v>
       </c>
     </row>
     <row r="361">
@@ -2972,7 +2980,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="0">
-        <v>-0.52611760971178423</v>
+        <v>0.34281246746845079</v>
       </c>
     </row>
     <row r="362">
@@ -2980,7 +2988,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="0">
-        <v>0.47561941184479933</v>
+        <v>-0.31043898187785035</v>
       </c>
     </row>
     <row r="363">
@@ -2988,7 +2996,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="0">
-        <v>1.4707227691430274</v>
+        <v>-0.96158945180217059</v>
       </c>
     </row>
     <row r="364">
@@ -2996,7 +3004,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="0">
-        <v>2.4725633053321028</v>
+        <v>-1.6194136726711175</v>
       </c>
     </row>
     <row r="365">
@@ -3004,7 +3012,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="0">
-        <v>3.4711763047235529</v>
+        <v>-2.27740607086429</v>
       </c>
     </row>
     <row r="366">
@@ -3012,7 +3020,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="0">
-        <v>3.4711763047235529</v>
+        <v>-2.2774060708643389</v>
       </c>
     </row>
     <row r="367">
@@ -3020,7 +3028,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="0">
-        <v>3.4560668232502447</v>
+        <v>-2.2674331951887066</v>
       </c>
     </row>
     <row r="368">
@@ -3028,7 +3036,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="0">
-        <v>4.466559019435878</v>
+        <v>-2.9355685045705178</v>
       </c>
     </row>
     <row r="369">
@@ -3036,7 +3044,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="0">
-        <v>5.4773330913318121</v>
+        <v>-3.606283166055742</v>
       </c>
     </row>
     <row r="370">
@@ -3044,7 +3052,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="0">
-        <v>5.4960043244888048</v>
+        <v>-3.6186954387543415</v>
       </c>
     </row>
     <row r="371">
@@ -3052,7 +3060,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="372">
@@ -3060,7 +3068,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="373">
@@ -3068,7 +3076,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="374">
@@ -3076,7 +3084,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="375">
@@ -3084,7 +3092,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="376">
@@ -3092,7 +3100,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="377">
@@ -3100,7 +3108,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="0">
-        <v>4.4834488789502442</v>
+        <v>-2.9467562914983247</v>
       </c>
     </row>
     <row r="378">
@@ -3108,7 +3116,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="0">
-        <v>3.4711763047235529</v>
+        <v>-2.2774060708643389</v>
       </c>
     </row>
     <row r="379">
@@ -3116,7 +3124,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="0">
-        <v>2.4458562670851789</v>
+        <v>-1.6018477067611416</v>
       </c>
     </row>
     <row r="380">
@@ -3124,7 +3132,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="0">
-        <v>0.41655153936980854</v>
+        <v>-0.27185761300074285</v>
       </c>
     </row>
     <row r="381">
@@ -3132,7 +3140,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="0">
-        <v>-1.6165982559150178</v>
+        <v>1.0514095610671892</v>
       </c>
     </row>
     <row r="382">
@@ -3140,7 +3148,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="0">
-        <v>-0.63777028518703771</v>
+        <v>0.41548515131269814</v>
       </c>
     </row>
     <row r="383">
@@ -3148,7 +3156,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="0">
-        <v>2.3279801254881072</v>
+        <v>-1.5243367742704217</v>
       </c>
     </row>
     <row r="384">
@@ -3156,7 +3164,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="385">
@@ -3164,7 +3172,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="0">
-        <v>5.3113905796634819</v>
+        <v>-3.4960040914892132</v>
       </c>
     </row>
     <row r="386">
@@ -3172,7 +3180,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="0">
-        <v>8.3208616924042058</v>
+        <v>-5.506229757471405</v>
       </c>
     </row>
     <row r="387">
@@ -3180,7 +3188,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="0">
-        <v>10.398178277346171</v>
+        <v>-6.9067044573119372</v>
       </c>
     </row>
     <row r="388">
@@ -3188,7 +3196,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="0">
-        <v>9.4717803302182073</v>
+        <v>-6.2808275520077368</v>
       </c>
     </row>
     <row r="389">
@@ -3196,7 +3204,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="0">
-        <v>8.5113489231158539</v>
+        <v>-5.6342072868821109</v>
       </c>
     </row>
     <row r="390">
@@ -3204,7 +3212,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="0">
-        <v>8.5594386353655878</v>
+        <v>-5.666530103921537</v>
       </c>
     </row>
     <row r="391">
@@ -3212,7 +3220,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="0">
-        <v>7.588957991930787</v>
+        <v>-5.0153304462043797</v>
       </c>
     </row>
     <row r="392">
@@ -3220,7 +3228,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="0">
-        <v>5.5711593508890243</v>
+        <v>-3.6686653978952921</v>
       </c>
     </row>
     <row r="393">
@@ -3228,7 +3236,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="0">
-        <v>2.5129759817931854</v>
+        <v>-1.645997326167304</v>
       </c>
     </row>
     <row r="394">
@@ -3236,7 +3244,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="0">
-        <v>0.45574252041879687</v>
+        <v>-0.29745511847051792</v>
       </c>
     </row>
     <row r="395">
@@ -3244,7 +3252,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="0">
-        <v>1.4474788227801636</v>
+        <v>-0.9463541882593709</v>
       </c>
     </row>
     <row r="396">
@@ -3252,7 +3260,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="0">
-        <v>0.42627913370050158</v>
+        <v>-0.27821084966621107</v>
       </c>
     </row>
     <row r="397">
@@ -3260,7 +3268,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="0">
-        <v>-1.6105619873442609</v>
+        <v>1.0474943697656902</v>
       </c>
     </row>
     <row r="398">
@@ -3268,7 +3276,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="0">
-        <v>-0.6300975601776756</v>
+        <v>0.41049199774984879</v>
       </c>
     </row>
     <row r="399">
@@ -3276,7 +3284,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="0">
-        <v>5.3296430573506699</v>
+        <v>-3.5081308027729117</v>
       </c>
     </row>
     <row r="400">
@@ -3284,7 +3292,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="0">
-        <v>10.398178277346171</v>
+        <v>-6.9067044573119372</v>
       </c>
     </row>
     <row r="401">
@@ -3292,7 +3300,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="0">
-        <v>11.489290375602405</v>
+        <v>-7.6466280734225354</v>
       </c>
     </row>
     <row r="402">
@@ -3300,7 +3308,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="0">
-        <v>12.62304883742641</v>
+        <v>-8.4186808441985459</v>
       </c>
     </row>
     <row r="403">
@@ -3308,7 +3316,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="0">
-        <v>11.724901743488511</v>
+        <v>-7.8068011276538263</v>
       </c>
     </row>
     <row r="404">
@@ -3316,7 +3324,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="0">
-        <v>9.7572145117262608</v>
+        <v>-6.4734393903062175</v>
       </c>
     </row>
     <row r="405">
@@ -3324,7 +3332,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="0">
-        <v>6.715975048796782</v>
+        <v>-4.4315075021914021</v>
       </c>
     </row>
     <row r="406">
@@ -3332,7 +3340,7 @@
         <v>404</v>
       </c>
       <c r="B406" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="407">
@@ -3340,7 +3348,7 @@
         <v>405</v>
       </c>
       <c r="B407" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="408">
@@ -3348,7 +3356,7 @@
         <v>406</v>
       </c>
       <c r="B408" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="409">
@@ -3356,7 +3364,7 @@
         <v>407</v>
       </c>
       <c r="B409" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="410">
@@ -3364,7 +3372,7 @@
         <v>408</v>
       </c>
       <c r="B410" s="0">
-        <v>3.62486215485134</v>
+        <v>-2.3788750741221558</v>
       </c>
     </row>
     <row r="411">
@@ -3372,7 +3380,7 @@
         <v>409</v>
       </c>
       <c r="B411" s="0">
-        <v>2.5812747540063374</v>
+        <v>-1.6909330944563803</v>
       </c>
     </row>
     <row r="412">
@@ -3380,7 +3388,7 @@
         <v>410</v>
       </c>
       <c r="B412" s="0">
-        <v>2.5675201954826545</v>
+        <v>-1.6818827065777364</v>
       </c>
     </row>
     <row r="413">
@@ -3388,7 +3396,7 @@
         <v>411</v>
       </c>
       <c r="B413" s="0">
-        <v>3.5782595075276613</v>
+        <v>-2.3481005219564111</v>
       </c>
     </row>
     <row r="414">
@@ -3396,7 +3404,7 @@
         <v>412</v>
       </c>
       <c r="B414" s="0">
-        <v>5.6280214642623241</v>
+        <v>-3.7064814535509631</v>
       </c>
     </row>
     <row r="415">
@@ -3404,7 +3412,7 @@
         <v>413</v>
       </c>
       <c r="B415" s="0">
-        <v>6.6741690685597401</v>
+        <v>-4.4035951249775644</v>
       </c>
     </row>
     <row r="416">
@@ -3412,7 +3420,7 @@
         <v>414</v>
       </c>
       <c r="B416" s="0">
-        <v>6.6950482166046319</v>
+        <v>-4.4175348699881294</v>
       </c>
     </row>
     <row r="417">
@@ -3420,7 +3428,7 @@
         <v>415</v>
       </c>
       <c r="B417" s="0">
-        <v>6.715975048796782</v>
+        <v>-4.4315075021913541</v>
       </c>
     </row>
     <row r="418">
@@ -3428,7 +3436,7 @@
         <v>416</v>
       </c>
       <c r="B418" s="0">
-        <v>8.8027268053811021</v>
+        <v>-5.8301399294957896</v>
       </c>
     </row>
     <row r="419">
@@ -3436,7 +3444,7 @@
         <v>417</v>
       </c>
       <c r="B419" s="0">
-        <v>13.033188573994561</v>
+        <v>-8.6987868859999349</v>
       </c>
     </row>
     <row r="420">
@@ -3444,7 +3452,7 @@
         <v>418</v>
       </c>
       <c r="B420" s="0">
-        <v>12.144569874309829</v>
+        <v>-8.0924504853640631</v>
       </c>
     </row>
     <row r="421">
@@ -3452,7 +3460,7 @@
         <v>419</v>
       </c>
       <c r="B421" s="0">
-        <v>10.101997598102091</v>
+        <v>-6.7063708143930247</v>
       </c>
     </row>
     <row r="422">
@@ -3460,7 +3468,7 @@
         <v>420</v>
       </c>
       <c r="B422" s="0">
-        <v>12.296752385606755</v>
+        <v>-8.1961457778577369</v>
       </c>
     </row>
     <row r="423">
@@ -3468,7 +3476,7 @@
         <v>421</v>
       </c>
       <c r="B423" s="0">
-        <v>10.291052078653674</v>
+        <v>-6.8342199860321005</v>
       </c>
     </row>
     <row r="424">
@@ -3476,7 +3484,7 @@
         <v>422</v>
       </c>
       <c r="B424" s="0">
-        <v>6.0582098979201549</v>
+        <v>-3.9928266286834369</v>
       </c>
     </row>
     <row r="425">
@@ -3484,7 +3492,7 @@
         <v>423</v>
       </c>
       <c r="B425" s="0">
-        <v>3.93006445844996</v>
+        <v>-2.5805433315051811</v>
       </c>
     </row>
     <row r="426">
@@ -3492,7 +3500,7 @@
         <v>424</v>
       </c>
       <c r="B426" s="0">
-        <v>1.79022617060782</v>
+        <v>-1.1711323420706077</v>
       </c>
     </row>
     <row r="427">
@@ -3500,7 +3508,7 @@
         <v>425</v>
       </c>
       <c r="B427" s="0">
-        <v>0.70684332682909312</v>
+        <v>-0.46154273928822537</v>
       </c>
     </row>
     <row r="428">
@@ -3508,7 +3516,7 @@
         <v>426</v>
       </c>
       <c r="B428" s="0">
-        <v>0.68485838657877141</v>
+        <v>-0.4471705233742429</v>
       </c>
     </row>
     <row r="429">
@@ -3516,7 +3524,7 @@
         <v>427</v>
       </c>
       <c r="B429" s="0">
-        <v>1.7136025453994355</v>
+        <v>-1.1208584412342768</v>
       </c>
     </row>
     <row r="430">
@@ -3524,7 +3532,7 @@
         <v>428</v>
       </c>
       <c r="B430" s="0">
-        <v>2.7500621446516593</v>
+        <v>-1.8020291710223482</v>
       </c>
     </row>
     <row r="431">
@@ -3532,7 +3540,7 @@
         <v>429</v>
       </c>
       <c r="B431" s="0">
-        <v>2.7357315676376177</v>
+        <v>-1.7925942262034675</v>
       </c>
     </row>
     <row r="432">
@@ -3540,7 +3548,7 @@
         <v>430</v>
       </c>
       <c r="B432" s="0">
-        <v>1.6759475579784109</v>
+        <v>-1.096157329723761</v>
       </c>
     </row>
     <row r="433">
@@ -3548,7 +3556,7 @@
         <v>431</v>
       </c>
       <c r="B433" s="0">
-        <v>1.6510860373316458</v>
+        <v>-1.0798503059737714</v>
       </c>
     </row>
     <row r="434">
@@ -3556,7 +3564,7 @@
         <v>432</v>
       </c>
       <c r="B434" s="0">
-        <v>2.6788928725650418</v>
+        <v>-1.7551774922521244</v>
       </c>
     </row>
     <row r="435">
@@ -3564,7 +3572,7 @@
         <v>433</v>
       </c>
       <c r="B435" s="0">
-        <v>2.6648037022729132</v>
+        <v>-1.7459037829268391</v>
       </c>
     </row>
     <row r="436">
@@ -3572,7 +3580,7 @@
         <v>434</v>
       </c>
       <c r="B436" s="0">
-        <v>3.6876667686245175</v>
+        <v>-2.4203567382394158</v>
       </c>
     </row>
     <row r="437">
@@ -3580,7 +3588,7 @@
         <v>435</v>
       </c>
       <c r="B437" s="0">
-        <v>3.6876667686238687</v>
+        <v>-2.4203567382393425</v>
       </c>
     </row>
     <row r="438">
@@ -3588,7 +3596,7 @@
         <v>436</v>
       </c>
       <c r="B438" s="0">
-        <v>2.6367694062287343</v>
+        <v>-1.7274525316553968</v>
       </c>
     </row>
     <row r="439">
@@ -3596,7 +3604,7 @@
         <v>437</v>
       </c>
       <c r="B439" s="0">
-        <v>2.622824120593374</v>
+        <v>-1.7182748750811903</v>
       </c>
     </row>
     <row r="440">
@@ -3604,7 +3612,7 @@
         <v>438</v>
       </c>
       <c r="B440" s="0">
-        <v>2.6089266366323645</v>
+        <v>-1.7091291215118201</v>
       </c>
     </row>
     <row r="441">
@@ -3612,7 +3620,7 @@
         <v>439</v>
       </c>
       <c r="B441" s="0">
-        <v>2.5950768744141026</v>
+        <v>-1.7000152137072568</v>
       </c>
     </row>
     <row r="442">
@@ -3620,7 +3628,7 @@
         <v>440</v>
       </c>
       <c r="B442" s="0">
-        <v>3.6092803759698224</v>
+        <v>-2.3685849206652287</v>
       </c>
     </row>
     <row r="443">
@@ -3628,7 +3636,7 @@
         <v>441</v>
       </c>
       <c r="B443" s="0">
-        <v>4.6375776614043609</v>
+        <v>-3.0488815810247321</v>
       </c>
     </row>
     <row r="444">
@@ -3636,7 +3644,7 @@
         <v>442</v>
       </c>
       <c r="B444" s="0">
-        <v>4.6375776614043609</v>
+        <v>-3.0488815810247321</v>
       </c>
     </row>
     <row r="445">
@@ -3644,7 +3652,7 @@
         <v>443</v>
       </c>
       <c r="B445" s="0">
-        <v>4.6375776614043609</v>
+        <v>-3.0488815810247321</v>
       </c>
     </row>
     <row r="446">
@@ -3652,7 +3660,7 @@
         <v>444</v>
       </c>
       <c r="B446" s="0">
-        <v>5.6661668587014269</v>
+        <v>-3.7318542872936202</v>
       </c>
     </row>
     <row r="447">
@@ -3660,7 +3668,7 @@
         <v>445</v>
       </c>
       <c r="B447" s="0">
-        <v>6.715975048796782</v>
+        <v>-4.4315075021913541</v>
       </c>
     </row>
     <row r="448">
@@ -3668,7 +3676,7 @@
         <v>446</v>
       </c>
       <c r="B448" s="0">
-        <v>5.7045028567698317</v>
+        <v>-3.7573573849352502</v>
       </c>
     </row>
     <row r="449">
@@ -3676,7 +3684,7 @@
         <v>447</v>
       </c>
       <c r="B449" s="0">
-        <v>5.7045028567704801</v>
+        <v>-3.7573573849352995</v>
       </c>
     </row>
     <row r="450">
@@ -3684,7 +3692,7 @@
         <v>448</v>
       </c>
       <c r="B450" s="0">
-        <v>5.7237425326860727</v>
+        <v>-3.770157932877225</v>
       </c>
     </row>
     <row r="451">
@@ -3692,7 +3700,7 @@
         <v>449</v>
       </c>
       <c r="B451" s="0">
-        <v>4.6898081886369871</v>
+        <v>-3.0835020226080543</v>
       </c>
     </row>
     <row r="452">
@@ -3700,7 +3708,7 @@
         <v>450</v>
       </c>
       <c r="B452" s="0">
-        <v>3.6561688020355465</v>
+        <v>-2.3995515797921962</v>
       </c>
     </row>
     <row r="453">
@@ -3708,7 +3716,7 @@
         <v>451</v>
       </c>
       <c r="B453" s="0">
-        <v>2.6089266366323645</v>
+        <v>-1.7091291215118201</v>
       </c>
     </row>
     <row r="454">
@@ -3716,7 +3724,7 @@
         <v>452</v>
       </c>
       <c r="B454" s="0">
-        <v>3.62486215485134</v>
+        <v>-2.3788750741221558</v>
       </c>
     </row>
     <row r="455">
@@ -3724,7 +3732,7 @@
         <v>453</v>
       </c>
       <c r="B455" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="456">
@@ -3732,7 +3740,7 @@
         <v>454</v>
       </c>
       <c r="B456" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="457">
@@ -3740,7 +3748,7 @@
         <v>455</v>
       </c>
       <c r="B457" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="458">
@@ -3748,7 +3756,7 @@
         <v>456</v>
       </c>
       <c r="B458" s="0">
-        <v>4.6549401108774839</v>
+        <v>-3.0603893827233417</v>
       </c>
     </row>
     <row r="459">
@@ -3756,7 +3764,7 @@
         <v>457</v>
       </c>
       <c r="B459" s="0">
-        <v>3.62486215485134</v>
+        <v>-2.3788750741221558</v>
       </c>
     </row>
     <row r="460">
@@ -3764,7 +3772,7 @@
         <v>458</v>
       </c>
       <c r="B460" s="0">
-        <v>3.6092803759698224</v>
+        <v>-2.3685849206652287</v>
       </c>
     </row>
     <row r="461">
@@ -3772,7 +3780,7 @@
         <v>459</v>
       </c>
       <c r="B461" s="0">
-        <v>5.6661668587014269</v>
+        <v>-3.7318542872936202</v>
       </c>
     </row>
     <row r="462">
@@ -3780,7 +3788,7 @@
         <v>460</v>
       </c>
       <c r="B462" s="0">
-        <v>6.715975048796782</v>
+        <v>-4.4315075021913541</v>
       </c>
     </row>
     <row r="463">
@@ -3788,7 +3796,7 @@
         <v>461</v>
       </c>
       <c r="B463" s="0">
-        <v>5.7045028567698317</v>
+        <v>-3.7573573849352502</v>
       </c>
     </row>
     <row r="464">
@@ -3796,7 +3804,7 @@
         <v>462</v>
       </c>
       <c r="B464" s="0">
-        <v>5.7045028567704801</v>
+        <v>-3.7573573849352995</v>
       </c>
     </row>
     <row r="465">
@@ -3804,7 +3812,7 @@
         <v>463</v>
       </c>
       <c r="B465" s="0">
-        <v>6.757972086833048</v>
+        <v>-4.4595516725133271</v>
       </c>
     </row>
     <row r="466">
@@ -3812,7 +3820,7 @@
         <v>464</v>
       </c>
       <c r="B466" s="0">
-        <v>5.7430301001415129</v>
+        <v>-3.7829912270570469</v>
       </c>
     </row>
     <row r="467">
@@ -3820,7 +3828,7 @@
         <v>465</v>
       </c>
       <c r="B467" s="0">
-        <v>4.7073139771614123</v>
+        <v>-3.0951069790297678</v>
       </c>
     </row>
     <row r="468">
@@ -3828,7 +3836,7 @@
         <v>466</v>
       </c>
       <c r="B468" s="0">
-        <v>3.6718938303901592</v>
+        <v>-2.409938048320297</v>
       </c>
     </row>
     <row r="469">
@@ -3836,7 +3844,7 @@
         <v>467</v>
       </c>
       <c r="B469" s="0">
-        <v>2.622824120593374</v>
+        <v>-1.7182748750811903</v>
       </c>
     </row>
     <row r="470">
@@ -3844,7 +3852,7 @@
         <v>468</v>
       </c>
       <c r="B470" s="0">
-        <v>2.6089266366323645</v>
+        <v>-1.7091291215118201</v>
       </c>
     </row>
     <row r="471">
@@ -3852,7 +3860,7 @@
         <v>469</v>
       </c>
       <c r="B471" s="0">
-        <v>1.5655840202339584</v>
+        <v>-1.0237790243539302</v>
       </c>
     </row>
     <row r="472">
@@ -3860,7 +3868,7 @@
         <v>470</v>
       </c>
       <c r="B472" s="0">
-        <v>-0.50941632565909112</v>
+        <v>0.33193953418471606</v>
       </c>
     </row>
     <row r="473">
@@ -3868,7 +3876,7 @@
         <v>471</v>
       </c>
       <c r="B473" s="0">
-        <v>-2.5735892369411659</v>
+        <v>1.6711196868681051</v>
       </c>
     </row>
     <row r="474">
@@ -3876,7 +3884,7 @@
         <v>472</v>
       </c>
       <c r="B474" s="0">
-        <v>-0.56704534043406163</v>
+        <v>0.36945478228153938</v>
       </c>
     </row>
     <row r="475">
@@ -3884,7 +3892,7 @@
         <v>473</v>
       </c>
       <c r="B475" s="0">
-        <v>-0.57509001289426631</v>
+        <v>0.37469110598682659</v>
       </c>
     </row>
     <row r="476">
@@ -3892,7 +3900,7 @@
         <v>474</v>
       </c>
       <c r="B476" s="0">
-        <v>-4.6201784596625091</v>
+        <v>2.9897809988672761</v>
       </c>
     </row>
     <row r="477">
@@ -3900,7 +3908,7 @@
         <v>475</v>
       </c>
       <c r="B477" s="0">
-        <v>-1.64028058088224</v>
+        <v>1.0667694118465272</v>
       </c>
     </row>
     <row r="478">
@@ -3908,7 +3916,7 @@
         <v>476</v>
       </c>
       <c r="B478" s="0">
-        <v>1.3340553660983614</v>
+        <v>-0.8720282318385052</v>
       </c>
     </row>
     <row r="479">
@@ -3916,7 +3924,7 @@
         <v>477</v>
       </c>
       <c r="B479" s="0">
-        <v>-0.66800062946159067</v>
+        <v>0.43515678403692504</v>
       </c>
     </row>
     <row r="480">
@@ -3924,7 +3932,7 @@
         <v>478</v>
       </c>
       <c r="B480" s="0">
-        <v>-1.6744245669836892</v>
+        <v>1.0889123131250202</v>
       </c>
     </row>
     <row r="481">
@@ -3932,7 +3940,7 @@
         <v>479</v>
       </c>
       <c r="B481" s="0">
-        <v>0.26719811707452318</v>
+        <v>-0.17433924239472573</v>
       </c>
     </row>
     <row r="482">
@@ -3940,7 +3948,7 @@
         <v>480</v>
       </c>
       <c r="B482" s="0">
-        <v>2.2138335366446058</v>
+        <v>-1.4493085328068056</v>
       </c>
     </row>
     <row r="483">
@@ -3948,7 +3956,7 @@
         <v>481</v>
       </c>
       <c r="B483" s="0">
-        <v>2.2013782726795679</v>
+        <v>-1.4411235227757022</v>
       </c>
     </row>
     <row r="484">
@@ -3956,7 +3964,7 @@
         <v>482</v>
       </c>
       <c r="B484" s="0">
-        <v>3.1635966799896669</v>
+        <v>-2.074494988407884</v>
       </c>
     </row>
     <row r="485">
@@ -3964,7 +3972,7 @@
         <v>483</v>
       </c>
       <c r="B485" s="0">
-        <v>4.1384872315424346</v>
+        <v>-2.7183872370627471</v>
       </c>
     </row>
     <row r="486">
@@ -3972,7 +3980,7 @@
         <v>484</v>
       </c>
       <c r="B486" s="0">
-        <v>4.1384872315424346</v>
+        <v>-2.7183872370627471</v>
       </c>
     </row>
     <row r="487">
@@ -3980,7 +3988,7 @@
         <v>485</v>
       </c>
       <c r="B487" s="0">
-        <v>4.1384872315424346</v>
+        <v>-2.7183872370627471</v>
       </c>
     </row>
     <row r="488">
@@ -3988,7 +3996,7 @@
         <v>486</v>
       </c>
       <c r="B488" s="0">
-        <v>4.1384872315424346</v>
+        <v>-2.7183872370627471</v>
       </c>
     </row>
     <row r="489">
@@ -3996,7 +4004,7 @@
         <v>487</v>
       </c>
       <c r="B489" s="0">
-        <v>5.1136401202770223</v>
+        <v>-3.3646717135572604</v>
       </c>
     </row>
     <row r="490">
@@ -4004,7 +4012,7 @@
         <v>488</v>
       </c>
       <c r="B490" s="0">
-        <v>5.1313896010208957</v>
+        <v>-3.3764559359372179</v>
       </c>
     </row>
     <row r="491">
@@ -4012,7 +4020,7 @@
         <v>489</v>
       </c>
       <c r="B491" s="0">
-        <v>4.1544559319400136</v>
+        <v>-2.7289525837201798</v>
       </c>
     </row>
     <row r="492">
@@ -4020,7 +4028,7 @@
         <v>490</v>
       </c>
       <c r="B492" s="0">
-        <v>4.1544559319400136</v>
+        <v>-2.7289525837201798</v>
       </c>
     </row>
     <row r="493">
@@ -4028,7 +4036,7 @@
         <v>491</v>
       </c>
       <c r="B493" s="0">
-        <v>4.1544559319400136</v>
+        <v>-2.7289525837201798</v>
       </c>
     </row>
     <row r="494">
@@ -4036,7 +4044,7 @@
         <v>492</v>
       </c>
       <c r="B494" s="0">
-        <v>4.1544559319400136</v>
+        <v>-2.7289525837201798</v>
       </c>
     </row>
     <row r="495">
@@ -4044,7 +4052,7 @@
         <v>493</v>
       </c>
       <c r="B495" s="0">
-        <v>5.1313896010208957</v>
+        <v>-3.3764559359372179</v>
       </c>
     </row>
     <row r="496">
@@ -4052,7 +4060,7 @@
         <v>494</v>
       </c>
       <c r="B496" s="0">
-        <v>5.1491844081703393</v>
+        <v>-3.3882709978850127</v>
       </c>
     </row>
     <row r="497">
@@ -4060,7 +4068,7 @@
         <v>495</v>
       </c>
       <c r="B497" s="0">
-        <v>3.1920197107367141</v>
+        <v>-2.093236567958888</v>
       </c>
     </row>
     <row r="498">
@@ -4068,7 +4076,7 @@
         <v>496</v>
       </c>
       <c r="B498" s="0">
-        <v>2.2013782726795679</v>
+        <v>-1.4411235227757022</v>
       </c>
     </row>
     <row r="499">
@@ -4076,7 +4084,7 @@
         <v>497</v>
       </c>
       <c r="B499" s="0">
-        <v>3.1635966799896669</v>
+        <v>-2.074494988407884</v>
       </c>
     </row>
     <row r="500">
@@ -4084,7 +4092,7 @@
         <v>498</v>
       </c>
       <c r="B500" s="0">
-        <v>3.1635966799896669</v>
+        <v>-2.0744949884078348</v>
       </c>
     </row>
     <row r="501">
@@ -4092,7 +4100,7 @@
         <v>499</v>
       </c>
       <c r="B501" s="0">
-        <v>2.1766034007968464</v>
+        <v>-1.4248437023294613</v>
       </c>
     </row>
     <row r="502">
@@ -4100,7 +4108,7 @@
         <v>500</v>
       </c>
       <c r="B502" s="0">
-        <v>2.1642836332046742</v>
+        <v>-1.4167487792293809</v>
       </c>
     </row>
     <row r="503">
@@ -4108,7 +4116,7 @@
         <v>501</v>
       </c>
       <c r="B503" s="0">
-        <v>1.1829759306910004</v>
+        <v>-0.77307162623598091</v>
       </c>
     </row>
     <row r="504">
@@ -4116,7 +4124,7 @@
         <v>502</v>
       </c>
       <c r="B504" s="0">
-        <v>1.1621167032696214</v>
+        <v>-0.75941294055209918</v>
       </c>
     </row>
     <row r="505">
@@ -4124,7 +4132,7 @@
         <v>503</v>
       </c>
       <c r="B505" s="0">
-        <v>3.0794096054370375</v>
+        <v>-2.018994648750442</v>
       </c>
     </row>
     <row r="506">
@@ -4132,7 +4140,7 @@
         <v>504</v>
       </c>
       <c r="B506" s="0">
-        <v>3.0794096054370375</v>
+        <v>-2.018994648750442</v>
       </c>
     </row>
     <row r="507">
@@ -4140,7 +4148,7 @@
         <v>505</v>
       </c>
       <c r="B507" s="0">
-        <v>2.103358285470958</v>
+        <v>-1.3767217835763026</v>
       </c>
     </row>
     <row r="508">
@@ -4148,7 +4156,7 @@
         <v>506</v>
       </c>
       <c r="B508" s="0">
-        <v>3.0517057886901755</v>
+        <v>-2.0007344785907883</v>
       </c>
     </row>
     <row r="509">
@@ -4156,7 +4164,7 @@
         <v>507</v>
       </c>
       <c r="B509" s="0">
-        <v>4.0123587404884589</v>
+        <v>-2.6349579423106144</v>
       </c>
     </row>
     <row r="510">
@@ -4164,7 +4172,7 @@
         <v>508</v>
       </c>
       <c r="B510" s="0">
-        <v>3.0517057886901755</v>
+        <v>-2.0007344785907395</v>
       </c>
     </row>
     <row r="511">
@@ -4172,7 +4180,7 @@
         <v>509</v>
       </c>
       <c r="B511" s="0">
-        <v>3.0379207472445144</v>
+        <v>-1.9916491261230247</v>
       </c>
     </row>
     <row r="512">
@@ -4180,7 +4188,7 @@
         <v>510</v>
       </c>
       <c r="B512" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="513">
@@ -4188,7 +4196,7 @@
         <v>511</v>
       </c>
       <c r="B513" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="514">
@@ -4196,7 +4204,7 @@
         <v>512</v>
       </c>
       <c r="B514" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="515">
@@ -4204,7 +4212,7 @@
         <v>513</v>
       </c>
       <c r="B515" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="516">
@@ -4212,7 +4220,7 @@
         <v>514</v>
       </c>
       <c r="B516" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="517">
@@ -4220,7 +4228,7 @@
         <v>515</v>
       </c>
       <c r="B517" s="0">
-        <v>3.9967941180914277</v>
+        <v>-2.6246650956547954</v>
       </c>
     </row>
     <row r="518">
@@ -4228,7 +4236,7 @@
         <v>516</v>
       </c>
       <c r="B518" s="0">
-        <v>4.9559212656331812</v>
+        <v>-3.2599917640185723</v>
       </c>
     </row>
     <row r="519">
@@ -4236,7 +4244,7 @@
         <v>517</v>
       </c>
       <c r="B519" s="0">
-        <v>5.9344290090957301</v>
+        <v>-3.9103895398861042</v>
       </c>
     </row>
     <row r="520">
@@ -4244,7 +4252,7 @@
         <v>518</v>
       </c>
       <c r="B520" s="0">
-        <v>7.8802568823820014</v>
+        <v>-5.2105527053920602</v>
       </c>
     </row>
     <row r="521">
@@ -4252,7 +4260,7 @@
         <v>519</v>
       </c>
       <c r="B521" s="0">
-        <v>9.8871291137355417</v>
+        <v>-6.5611733349970223</v>
       </c>
     </row>
     <row r="522">
@@ -4260,7 +4268,7 @@
         <v>520</v>
       </c>
       <c r="B522" s="0">
-        <v>8.0176226794155454</v>
+        <v>-5.3026840187791198</v>
       </c>
     </row>
     <row r="523">
@@ -4268,7 +4276,7 @@
         <v>521</v>
       </c>
       <c r="B523" s="0">
-        <v>6.089055558088635</v>
+        <v>-4.0133752809379786</v>
       </c>
     </row>
     <row r="524">
@@ -4276,7 +4284,7 @@
         <v>522</v>
       </c>
       <c r="B524" s="0">
-        <v>6.1085867803852816</v>
+        <v>-4.0263876952783635</v>
       </c>
     </row>
     <row r="525">
@@ -4284,7 +4292,7 @@
         <v>523</v>
       </c>
       <c r="B525" s="0">
-        <v>6.1281633596797196</v>
+        <v>-4.0394312419243592</v>
       </c>
     </row>
     <row r="526">
@@ -4292,7 +4300,7 @@
         <v>524</v>
       </c>
       <c r="B526" s="0">
-        <v>5.1670246218333515</v>
+        <v>-3.4001169584594244</v>
       </c>
     </row>
     <row r="527">
@@ -4300,7 +4308,7 @@
         <v>525</v>
       </c>
       <c r="B527" s="0">
-        <v>5.1670246218333515</v>
+        <v>-3.4001169584593023</v>
       </c>
     </row>
     <row r="528">
@@ -4308,7 +4316,7 @@
         <v>526</v>
       </c>
       <c r="B528" s="0">
-        <v>6.1674529100506419</v>
+        <v>-4.0656119721947253</v>
       </c>
     </row>
     <row r="529">
@@ -4316,7 +4324,7 @@
         <v>527</v>
       </c>
       <c r="B529" s="0">
-        <v>6.1871660415324845</v>
+        <v>-4.078749275938014</v>
       </c>
     </row>
     <row r="530">
@@ -4324,7 +4332,7 @@
         <v>528</v>
       </c>
       <c r="B530" s="0">
-        <v>6.2069248508195987</v>
+        <v>-4.0919179522244509</v>
       </c>
     </row>
     <row r="531">
@@ -4332,7 +4340,7 @@
         <v>529</v>
       </c>
       <c r="B531" s="0">
-        <v>6.22672941812439</v>
+        <v>-4.1051180612019955</v>
       </c>
     </row>
     <row r="532">
@@ -4340,7 +4348,7 @@
         <v>530</v>
       </c>
       <c r="B532" s="0">
-        <v>6.2465798236599168</v>
+        <v>-4.1183496630537144</v>
       </c>
     </row>
     <row r="533">
@@ -4348,7 +4356,7 @@
         <v>531</v>
       </c>
       <c r="B533" s="0">
-        <v>6.2664761476444237</v>
+        <v>-4.1316128179987182</v>
       </c>
     </row>
     <row r="534">
@@ -4356,7 +4364,7 @@
         <v>532</v>
       </c>
       <c r="B534" s="0">
-        <v>6.2864184703000454</v>
+        <v>-4.1449075862918878</v>
       </c>
     </row>
     <row r="535">
@@ -4364,7 +4372,7 @@
         <v>533</v>
       </c>
       <c r="B535" s="0">
-        <v>5.3113905796634819</v>
+        <v>-3.4960040914892621</v>
       </c>
     </row>
     <row r="536">
@@ -4372,7 +4380,7 @@
         <v>534</v>
       </c>
       <c r="B536" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="537">
@@ -4380,7 +4388,7 @@
         <v>535</v>
       </c>
       <c r="B537" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="538">
@@ -4388,7 +4396,7 @@
         <v>536</v>
       </c>
       <c r="B538" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="539">
@@ -4396,7 +4404,7 @@
         <v>537</v>
       </c>
       <c r="B539" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="540">
@@ -4404,7 +4412,7 @@
         <v>538</v>
       </c>
       <c r="B540" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="541">
@@ -4412,7 +4420,7 @@
         <v>539</v>
       </c>
       <c r="B541" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="542">
@@ -4420,7 +4428,7 @@
         <v>540</v>
       </c>
       <c r="B542" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="543">
@@ -4428,7 +4436,7 @@
         <v>541</v>
       </c>
       <c r="B543" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="544">
@@ -4436,7 +4444,7 @@
         <v>542</v>
       </c>
       <c r="B544" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="545">
@@ -4444,7 +4452,7 @@
         <v>543</v>
       </c>
       <c r="B545" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="546">
@@ -4452,7 +4460,7 @@
         <v>544</v>
       </c>
       <c r="B546" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="547">
@@ -4460,7 +4468,7 @@
         <v>545</v>
       </c>
       <c r="B547" s="0">
-        <v>4.3166475077865609</v>
+        <v>-2.8362968894035072</v>
       </c>
     </row>
     <row r="548">
@@ -4468,7 +4476,7 @@
         <v>546</v>
       </c>
       <c r="B548" s="0">
-        <v>3.3221774312742531</v>
+        <v>-2.1790838090330191</v>
       </c>
     </row>
     <row r="549">
@@ -4476,7 +4484,7 @@
         <v>547</v>
       </c>
       <c r="B549" s="0">
-        <v>3.3075322483640264</v>
+        <v>-2.1694224308162759</v>
       </c>
     </row>
     <row r="550">
@@ -4484,7 +4492,7 @@
         <v>548</v>
       </c>
       <c r="B550" s="0">
-        <v>4.300222230211336</v>
+        <v>-2.8254232435194293</v>
       </c>
     </row>
     <row r="551">
@@ -4492,7 +4500,7 @@
         <v>549</v>
       </c>
       <c r="B551" s="0">
-        <v>3.3075322483640264</v>
+        <v>-2.1694224308163248</v>
       </c>
     </row>
     <row r="552">
@@ -4500,7 +4508,7 @@
         <v>550</v>
       </c>
       <c r="B552" s="0">
-        <v>1.3119254613889504</v>
+        <v>-0.85752998249968515</v>
       </c>
     </row>
     <row r="553">
@@ -4508,7 +4516,7 @@
         <v>551</v>
       </c>
       <c r="B553" s="0">
-        <v>0.30343509827325027</v>
+        <v>-0.19799512469308006</v>
       </c>
     </row>
     <row r="554">
@@ -4516,7 +4524,7 @@
         <v>552</v>
       </c>
       <c r="B554" s="0">
-        <v>0.28522557018436806</v>
+        <v>-0.18610738651413822</v>
       </c>
     </row>
     <row r="555">
@@ -4524,7 +4532,7 @@
         <v>553</v>
       </c>
       <c r="B555" s="0">
-        <v>1.2466338323233139</v>
+        <v>-0.81476108720181362</v>
       </c>
     </row>
     <row r="556">
@@ -4532,7 +4540,7 @@
         <v>554</v>
       </c>
       <c r="B556" s="0">
-        <v>2.2138335366446058</v>
+        <v>-1.4493085328068056</v>
       </c>
     </row>
     <row r="557">
@@ -4540,7 +4548,7 @@
         <v>555</v>
       </c>
       <c r="B557" s="0">
-        <v>2.2013782726795679</v>
+        <v>-1.4411235227757022</v>
       </c>
     </row>
     <row r="558">
@@ -4548,7 +4556,7 @@
         <v>556</v>
       </c>
       <c r="B558" s="0">
-        <v>0.2404969337536248</v>
+        <v>-0.15691030665378206</v>
       </c>
     </row>
     <row r="559">
@@ -4556,7 +4564,7 @@
         <v>557</v>
       </c>
       <c r="B559" s="0">
-        <v>-0.7543136257217059</v>
+        <v>0.49131166588170083</v>
       </c>
     </row>
     <row r="560">
@@ -4564,7 +4572,7 @@
         <v>558</v>
       </c>
       <c r="B560" s="0">
-        <v>0.19689630756186066</v>
+        <v>-0.12845384823280864</v>
       </c>
     </row>
     <row r="561">
@@ -4572,7 +4580,7 @@
         <v>559</v>
       </c>
       <c r="B561" s="0">
-        <v>1.1414364491842033</v>
+        <v>-0.74587241644007474</v>
       </c>
     </row>
     <row r="562">
@@ -4580,7 +4588,7 @@
         <v>560</v>
       </c>
       <c r="B562" s="0">
-        <v>0.17127323460523297</v>
+        <v>-0.11173263019593883</v>
       </c>
     </row>
     <row r="563">
@@ -4588,7 +4596,7 @@
         <v>561</v>
       </c>
       <c r="B563" s="0">
-        <v>-2.7161230848398485</v>
+        <v>1.7632488589475166</v>
       </c>
     </row>
     <row r="564">
@@ -4596,7 +4604,7 @@
         <v>562</v>
       </c>
       <c r="B564" s="0">
-        <v>-0.83416651782142726</v>
+        <v>0.54324897336091604</v>
       </c>
     </row>
     <row r="565">
@@ -4604,7 +4612,7 @@
         <v>563</v>
       </c>
       <c r="B565" s="0">
-        <v>1.05057299883236</v>
+        <v>-0.68639044125685866</v>
       </c>
     </row>
     <row r="566">
@@ -4612,7 +4620,7 @@
         <v>564</v>
       </c>
       <c r="B566" s="0">
-        <v>0.088742320589794255</v>
+        <v>-0.057884201044238491</v>
       </c>
     </row>
     <row r="567">
@@ -4620,7 +4628,7 @@
         <v>565</v>
       </c>
       <c r="B567" s="0">
-        <v>-0.86556461318012801</v>
+        <v>0.56366682672757762</v>
       </c>
     </row>
     <row r="568">
@@ -4628,7 +4636,7 @@
         <v>566</v>
       </c>
       <c r="B568" s="0">
-        <v>-0.88388072027982623</v>
+        <v>0.57557659517871085</v>
       </c>
     </row>
     <row r="569">
@@ -4636,7 +4644,7 @@
         <v>567</v>
       </c>
       <c r="B569" s="0">
-        <v>0.033574788506909745</v>
+        <v>-0.021897856948121772</v>
       </c>
     </row>
     <row r="570">
@@ -4644,7 +4652,7 @@
         <v>568</v>
       </c>
       <c r="B570" s="0">
-        <v>0.94433712978194595</v>
+        <v>-0.61686880904361674</v>
       </c>
     </row>
     <row r="571">
@@ -4652,7 +4660,7 @@
         <v>569</v>
       </c>
       <c r="B571" s="0">
-        <v>1.859533249390724</v>
+        <v>-1.2166172400209143</v>
       </c>
     </row>
     <row r="572">
@@ -4660,7 +4668,7 @@
         <v>570</v>
       </c>
       <c r="B572" s="0">
-        <v>2.7714526675015438</v>
+        <v>-1.8161131105754684</v>
       </c>
     </row>
     <row r="573">
@@ -4668,7 +4676,7 @@
         <v>571</v>
       </c>
       <c r="B573" s="0">
-        <v>3.6947397976899281</v>
+        <v>-2.4250289593737575</v>
       </c>
     </row>
     <row r="574">
@@ -4676,7 +4684,7 @@
         <v>572</v>
       </c>
       <c r="B574" s="0">
-        <v>3.6947397976899281</v>
+        <v>-2.4250289593737575</v>
       </c>
     </row>
     <row r="575">
@@ -4684,7 +4692,7 @@
         <v>573</v>
       </c>
       <c r="B575" s="0">
-        <v>4.6182621955802396</v>
+        <v>-3.03608015484002</v>
       </c>
     </row>
     <row r="576">
@@ -4692,7 +4700,7 @@
         <v>574</v>
       </c>
       <c r="B576" s="0">
-        <v>3.709429662475709</v>
+        <v>-2.4347329944337792</v>
       </c>
     </row>
     <row r="577">
@@ -4700,7 +4708,7 @@
         <v>575</v>
       </c>
       <c r="B577" s="0">
-        <v>2.7714526675015438</v>
+        <v>-1.8161131105754684</v>
       </c>
     </row>
     <row r="578">
@@ -4708,7 +4716,7 @@
         <v>576</v>
       </c>
       <c r="B578" s="0">
-        <v>2.7714526675015438</v>
+        <v>-1.8161131105754684</v>
       </c>
     </row>
     <row r="579">
@@ -4716,7 +4724,7 @@
         <v>577</v>
       </c>
       <c r="B579" s="0">
-        <v>-0.0045351111390560276</v>
+        <v>0.0029576582694029506</v>
       </c>
     </row>
     <row r="580">
@@ -4724,7 +4732,7 @@
         <v>578</v>
       </c>
       <c r="B580" s="0">
-        <v>-0.94213386193353965</v>
+        <v>0.61344989021043983</v>
       </c>
     </row>
     <row r="581">
@@ -4732,7 +4740,7 @@
         <v>579</v>
       </c>
       <c r="B581" s="0">
-        <v>-0.95327223672774564</v>
+        <v>0.62069065531168444</v>
       </c>
     </row>
     <row r="582">
@@ -4740,7 +4748,7 @@
         <v>580</v>
       </c>
       <c r="B582" s="0">
-        <v>-2.781722987212754</v>
+        <v>1.8056357038236743</v>
       </c>
     </row>
     <row r="583">
@@ -4748,7 +4756,7 @@
         <v>581</v>
       </c>
       <c r="B583" s="0">
-        <v>-3.6873973605827657</v>
+        <v>2.389882373535352</v>
       </c>
     </row>
     <row r="584">
@@ -4756,7 +4764,7 @@
         <v>582</v>
       </c>
       <c r="B584" s="0">
-        <v>-4.5780047026904063</v>
+        <v>2.9626977516920032</v>
       </c>
     </row>
     <row r="585">
@@ -4764,7 +4772,7 @@
         <v>583</v>
       </c>
       <c r="B585" s="0">
-        <v>-5.4495791469894153</v>
+        <v>3.5216440777775135</v>
       </c>
     </row>
     <row r="586">
@@ -4772,7 +4780,7 @@
         <v>584</v>
       </c>
       <c r="B586" s="0">
-        <v>-6.3022112065951328</v>
+        <v>4.0668990810395904</v>
       </c>
     </row>
     <row r="587">
@@ -4780,7 +4788,7 @@
         <v>585</v>
       </c>
       <c r="B587" s="0">
-        <v>-6.2656250671871536</v>
+        <v>4.0435335401275658</v>
       </c>
     </row>
     <row r="588">
@@ -4788,7 +4796,7 @@
         <v>586</v>
       </c>
       <c r="B588" s="0">
-        <v>-1.9635898717624622</v>
+        <v>1.2763383348197102</v>
       </c>
     </row>
     <row r="589">
@@ -4796,7 +4804,7 @@
         <v>587</v>
       </c>
       <c r="B589" s="0">
-        <v>1.4468644859073201</v>
+        <v>-0.94595153724843095</v>
       </c>
     </row>
     <row r="590">
@@ -4804,7 +4812,7 @@
         <v>588</v>
       </c>
       <c r="B590" s="0">
-        <v>2.2893268299918073</v>
+        <v>-1.4989267346418929</v>
       </c>
     </row>
     <row r="591">
@@ -4812,7 +4820,7 @@
         <v>589</v>
       </c>
       <c r="B591" s="0">
-        <v>3.9938138776695178</v>
+        <v>-2.6226943343557951</v>
       </c>
     </row>
     <row r="592">
@@ -4820,7 +4828,7 @@
         <v>590</v>
       </c>
       <c r="B592" s="0">
-        <v>6.5722059334624996</v>
+        <v>-4.335535547296435</v>
       </c>
     </row>
     <row r="593">
@@ -4828,7 +4836,7 @@
         <v>591</v>
       </c>
       <c r="B593" s="0">
-        <v>10.075249673785866</v>
+        <v>-6.6882896033994896</v>
       </c>
     </row>
     <row r="594">
@@ -4836,7 +4844,7 @@
         <v>592</v>
       </c>
       <c r="B594" s="0">
-        <v>8.4734933407948141</v>
+        <v>-5.6087671890056949</v>
       </c>
     </row>
     <row r="595">
@@ -4844,7 +4852,7 @@
         <v>593</v>
       </c>
       <c r="B595" s="0">
-        <v>5.0141108886829038</v>
+        <v>-3.2986061074970587</v>
       </c>
     </row>
     <row r="596">
@@ -4852,7 +4860,7 @@
         <v>594</v>
       </c>
       <c r="B596" s="0">
-        <v>4.1589840721540687</v>
+        <v>-2.7319486384737592</v>
       </c>
     </row>
     <row r="597">
@@ -4860,7 +4868,7 @@
         <v>595</v>
       </c>
       <c r="B597" s="0">
-        <v>2.4153658242324938</v>
+        <v>-1.581795286128816</v>
       </c>
     </row>
     <row r="598">
@@ -4868,7 +4876,7 @@
         <v>596</v>
       </c>
       <c r="B598" s="0">
-        <v>2.4037065313852706</v>
+        <v>-1.5741279689282994</v>
       </c>
     </row>
     <row r="599">
@@ -4876,7 +4884,7 @@
         <v>597</v>
       </c>
       <c r="B599" s="0">
-        <v>2.4037065313852706</v>
+        <v>-1.5741279689283485</v>
       </c>
     </row>
     <row r="600">
@@ -4884,7 +4892,7 @@
         <v>598</v>
       </c>
       <c r="B600" s="0">
-        <v>-0.2111085557076752</v>
+        <v>0.13762989127067557</v>
       </c>
     </row>
     <row r="601">
@@ -4892,7 +4900,7 @@
         <v>599</v>
       </c>
       <c r="B601" s="0">
-        <v>-1.9535134479444278</v>
+        <v>1.2698102465160295</v>
       </c>
     </row>
     <row r="602">
@@ -4900,7 +4908,7 @@
         <v>600</v>
       </c>
       <c r="B602" s="0">
-        <v>-1.9611306059145661</v>
+        <v>1.2747451010349857</v>
       </c>
     </row>
     <row r="603">
@@ -4908,7 +4916,7 @@
         <v>601</v>
       </c>
       <c r="B603" s="0">
-        <v>-0.26590235561671638</v>
+        <v>0.17333590407075217</v>
       </c>
     </row>
     <row r="604">
@@ -4916,7 +4924,7 @@
         <v>602</v>
       </c>
       <c r="B604" s="0">
-        <v>1.4279426256650478</v>
+        <v>-0.93355011801239662</v>
       </c>
     </row>
     <row r="605">
@@ -4924,7 +4932,7 @@
         <v>603</v>
       </c>
       <c r="B605" s="0">
-        <v>1.4185411099868857</v>
+        <v>-0.92738865007914351</v>
       </c>
     </row>
     <row r="606">
@@ -4932,7 +4940,7 @@
         <v>604</v>
       </c>
       <c r="B606" s="0">
-        <v>3.9496061907899827</v>
+        <v>-2.5934632842636556</v>
       </c>
     </row>
     <row r="607">
@@ -4940,7 +4948,7 @@
         <v>605</v>
       </c>
       <c r="B607" s="0">
-        <v>8.2348600168451753</v>
+        <v>-5.4484792626186085</v>
       </c>
     </row>
     <row r="608">
@@ -4948,7 +4956,7 @@
         <v>606</v>
       </c>
       <c r="B608" s="0">
-        <v>12.626377681264646</v>
+        <v>-8.4209525378582732</v>
       </c>
     </row>
     <row r="609">
@@ -4956,7 +4964,7 @@
         <v>607</v>
       </c>
       <c r="B609" s="0">
-        <v>10.240570269581744</v>
+        <v>-6.8000726121422872</v>
       </c>
     </row>
     <row r="610">
@@ -4964,7 +4972,7 @@
         <v>608</v>
       </c>
       <c r="B610" s="0">
-        <v>3.2870701045589494</v>
+        <v>-2.1559244532856647</v>
       </c>
     </row>
     <row r="611">
@@ -4972,7 +4980,7 @@
         <v>609</v>
       </c>
       <c r="B611" s="0">
-        <v>1.5339893088724279</v>
+        <v>-1.0030637545498722</v>
       </c>
     </row>
     <row r="612">
@@ -4980,7 +4988,7 @@
         <v>610</v>
       </c>
       <c r="B612" s="0">
-        <v>-5.4119058091442547</v>
+        <v>3.4975170100169883</v>
       </c>
     </row>
     <row r="613">
@@ -4988,7 +4996,7 @@
         <v>611</v>
       </c>
       <c r="B613" s="0">
-        <v>-12.166589063666983</v>
+        <v>7.7768742633736929</v>
       </c>
     </row>
     <row r="614">
@@ -4996,7 +5004,7 @@
         <v>612</v>
       </c>
       <c r="B614" s="0">
-        <v>-11.99522747264832</v>
+        <v>7.6694409298068633</v>
       </c>
     </row>
     <row r="615">
@@ -5004,7 +5012,7 @@
         <v>613</v>
       </c>
       <c r="B615" s="0">
-        <v>-5.2795395305208412</v>
+        <v>3.4127222672315973</v>
       </c>
     </row>
     <row r="616">
@@ -5012,7 +5020,7 @@
         <v>614</v>
       </c>
       <c r="B616" s="0">
-        <v>2.0828719492969689</v>
+        <v>-1.3632644848670827</v>
       </c>
     </row>
     <row r="617">
@@ -5020,7 +5028,7 @@
         <v>615</v>
       </c>
       <c r="B617" s="0">
-        <v>3.7197812282966667</v>
+        <v>-2.4415714766595116</v>
       </c>
     </row>
     <row r="618">
@@ -5028,7 +5036,7 @@
         <v>616</v>
       </c>
       <c r="B618" s="0">
-        <v>9.4813417555839763</v>
+        <v>-6.2872763515479253</v>
       </c>
     </row>
     <row r="619">
@@ -5036,7 +5044,7 @@
         <v>617</v>
       </c>
       <c r="B619" s="0">
-        <v>16.348136817534563</v>
+        <v>-10.978935774327271</v>
       </c>
     </row>
     <row r="620">
@@ -5044,7 +5052,7 @@
         <v>618</v>
       </c>
       <c r="B620" s="0">
-        <v>20.981961941688056</v>
+        <v>-14.216285286642716</v>
       </c>
     </row>
     <row r="621">
@@ -5052,7 +5060,7 @@
         <v>619</v>
       </c>
       <c r="B621" s="0">
-        <v>19.842075043869269</v>
+        <v>-13.41435494891477</v>
       </c>
     </row>
     <row r="622">
@@ -5060,7 +5068,7 @@
         <v>620</v>
       </c>
       <c r="B622" s="0">
-        <v>17.51587911553856</v>
+        <v>-11.789159710575477</v>
       </c>
     </row>
     <row r="623">
@@ -5068,7 +5076,7 @@
         <v>621</v>
       </c>
       <c r="B623" s="0">
-        <v>19.702685582986827</v>
+        <v>-13.316544827134607</v>
       </c>
     </row>
     <row r="624">
@@ -5076,7 +5084,7 @@
         <v>622</v>
       </c>
       <c r="B624" s="0">
-        <v>18.283707883042727</v>
+        <v>-12.323941509770096</v>
       </c>
     </row>
     <row r="625">
@@ -5084,7 +5092,7 @@
         <v>623</v>
       </c>
       <c r="B625" s="0">
-        <v>14.864851133578377</v>
+        <v>-9.9550785309803373</v>
       </c>
     </row>
     <row r="626">
@@ -5092,7 +5100,7 @@
         <v>624</v>
       </c>
       <c r="B626" s="0">
-        <v>11.293119247317428</v>
+        <v>-7.5133749936221497</v>
       </c>
     </row>
     <row r="627">
@@ -5100,7 +5108,7 @@
         <v>625</v>
       </c>
       <c r="B627" s="0">
-        <v>12.324315366352019</v>
+        <v>-8.2149332144120457</v>
       </c>
     </row>
     <row r="628">
@@ -5108,7 +5116,7 @@
         <v>626</v>
       </c>
       <c r="B628" s="0">
-        <v>13.466316494502326</v>
+        <v>-8.9950661703495829</v>
       </c>
     </row>
     <row r="629">
@@ -5116,7 +5124,7 @@
         <v>627</v>
       </c>
       <c r="B629" s="0">
-        <v>8.7949716587822149</v>
+        <v>-5.8249223924419207</v>
       </c>
     </row>
     <row r="630">
@@ -5124,7 +5132,7 @@
         <v>628</v>
       </c>
       <c r="B630" s="0">
-        <v>7.8575197839168007</v>
+        <v>-5.1953073589803198</v>
       </c>
     </row>
     <row r="631">
@@ -5132,7 +5140,7 @@
         <v>629</v>
       </c>
       <c r="B631" s="0">
-        <v>9.8606875678597881</v>
+        <v>-6.5433134153274874</v>
       </c>
     </row>
     <row r="632">
@@ -5140,7 +5148,7 @@
         <v>630</v>
       </c>
       <c r="B632" s="0">
-        <v>10.913305929287011</v>
+        <v>-7.2556567592335961</v>
       </c>
     </row>
     <row r="633">
@@ -5148,7 +5156,7 @@
         <v>631</v>
       </c>
       <c r="B633" s="0">
-        <v>11.027032734585587</v>
+        <v>-7.3327865571408468</v>
       </c>
     </row>
     <row r="634">
@@ -5156,7 +5164,7 @@
         <v>632</v>
       </c>
       <c r="B634" s="0">
-        <v>7.1717580848928826</v>
+        <v>-4.7360907982839313</v>
       </c>
     </row>
     <row r="635">
@@ -5164,7 +5172,7 @@
         <v>633</v>
       </c>
       <c r="B635" s="0">
-        <v>0.28522557018436806</v>
+        <v>-0.18610738651408915</v>
       </c>
     </row>
     <row r="636">
@@ -5172,7 +5180,7 @@
         <v>634</v>
       </c>
       <c r="B636" s="0">
-        <v>-4.6261241873311683</v>
+        <v>2.9935989378446579</v>
       </c>
     </row>
     <row r="637">
@@ -5180,7 +5188,7 @@
         <v>635</v>
       </c>
       <c r="B637" s="0">
-        <v>-9.4503067050080283</v>
+        <v>6.0670964316498468</v>
       </c>
     </row>
     <row r="638">
@@ -5188,7 +5196,7 @@
         <v>636</v>
       </c>
       <c r="B638" s="0">
-        <v>-15.052883209638841</v>
+        <v>9.5778462593169014</v>
       </c>
     </row>
     <row r="639">
@@ -5196,7 +5204,7 @@
         <v>637</v>
       </c>
       <c r="B639" s="0">
-        <v>-27.792248189483374</v>
+        <v>17.34352307595217</v>
       </c>
     </row>
     <row r="640">
@@ -5204,7 +5212,7 @@
         <v>638</v>
       </c>
       <c r="B640" s="0">
-        <v>-34.691101906350561</v>
+        <v>21.432766708300658</v>
       </c>
     </row>
     <row r="641">
@@ -5212,7 +5220,7 @@
         <v>639</v>
       </c>
       <c r="B641" s="0">
-        <v>-28.3599341916632</v>
+        <v>17.682969642894175</v>
       </c>
     </row>
     <row r="642">
@@ -5220,7 +5228,7 @@
         <v>640</v>
       </c>
       <c r="B642" s="0">
-        <v>-13.523269556023971</v>
+        <v>8.6254097136904679</v>
       </c>
     </row>
     <row r="643">
@@ -5228,7 +5236,7 @@
         <v>641</v>
       </c>
       <c r="B643" s="0">
-        <v>-1.1853169540011317</v>
+        <v>0.77147469043352257</v>
       </c>
     </row>
     <row r="644">
@@ -5236,7 +5244,7 @@
         <v>642</v>
       </c>
       <c r="B644" s="0">
-        <v>1.2559917245695267</v>
+        <v>-0.82089032783578031</v>
       </c>
     </row>
     <row r="645">
@@ -5244,7 +5252,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="0">
-        <v>5.3398347500243837</v>
+        <v>-3.5149023751375714</v>
       </c>
     </row>
     <row r="646">
@@ -5252,7 +5260,7 @@
         <v>644</v>
       </c>
       <c r="B646" s="0">
-        <v>9.5079269569708913</v>
+        <v>-6.3052082014652839</v>
       </c>
     </row>
     <row r="647">
@@ -5260,7 +5268,7 @@
         <v>645</v>
       </c>
       <c r="B647" s="0">
-        <v>12.972687018896986</v>
+        <v>-8.6574398226758866</v>
       </c>
     </row>
     <row r="648">
@@ -5268,7 +5276,7 @@
         <v>646</v>
       </c>
       <c r="B648" s="0">
-        <v>14.903087467890819</v>
+        <v>-9.9813979553501291</v>
       </c>
     </row>
     <row r="649">
@@ -5276,7 +5284,7 @@
         <v>647</v>
       </c>
       <c r="B649" s="0">
-        <v>14.31011715720803</v>
+        <v>-9.5736705596995204</v>
       </c>
     </row>
     <row r="650">
@@ -5284,7 +5292,7 @@
         <v>648</v>
       </c>
       <c r="B650" s="0">
-        <v>14.528581073465107</v>
+        <v>-9.7237786523947563</v>
       </c>
     </row>
     <row r="651">
@@ -5292,7 +5300,7 @@
         <v>649</v>
       </c>
       <c r="B651" s="0">
-        <v>15.667128707155362</v>
+        <v>-10.508129963064752</v>
       </c>
     </row>
     <row r="652">
@@ -5300,7 +5308,7 @@
         <v>650</v>
       </c>
       <c r="B652" s="0">
-        <v>14.149940387402404</v>
+        <v>-9.4636918369711314</v>
       </c>
     </row>
     <row r="653">
@@ -5308,7 +5316,7 @@
         <v>651</v>
       </c>
       <c r="B653" s="0">
-        <v>11.619181274794821</v>
+        <v>-7.73491286569074</v>
       </c>
     </row>
     <row r="654">
@@ -5316,7 +5324,7 @@
         <v>652</v>
       </c>
       <c r="B654" s="0">
-        <v>12.649739964070349</v>
+        <v>-8.4368963998695001</v>
       </c>
     </row>
     <row r="655">
@@ -5324,7 +5332,7 @@
         <v>653</v>
       </c>
       <c r="B655" s="0">
-        <v>13.763765347493162</v>
+        <v>-9.1988177462819092</v>
       </c>
     </row>
     <row r="656">
@@ -5332,7 +5340,7 @@
         <v>654</v>
       </c>
       <c r="B656" s="0">
-        <v>11.14747537133341</v>
+        <v>-7.4145067242461407</v>
       </c>
     </row>
     <row r="657">
@@ -5340,7 +5348,7 @@
         <v>655</v>
       </c>
       <c r="B657" s="0">
-        <v>2.8364369574533042</v>
+        <v>-1.8589064908107396</v>
       </c>
     </row>
     <row r="658">
@@ -5348,7 +5356,7 @@
         <v>656</v>
       </c>
       <c r="B658" s="0">
-        <v>-4.6076854711366142</v>
+        <v>2.9817586135227816</v>
       </c>
     </row>
     <row r="659">
@@ -5356,7 +5364,7 @@
         <v>657</v>
       </c>
       <c r="B659" s="0">
-        <v>-5.5149068555990883</v>
+        <v>3.563474721062319</v>
       </c>
     </row>
     <row r="660">
@@ -5364,7 +5372,7 @@
         <v>658</v>
       </c>
       <c r="B660" s="0">
-        <v>-1.8758058795074515</v>
+        <v>1.219459365112372</v>
       </c>
     </row>
     <row r="661">
@@ -5372,7 +5380,7 @@
         <v>659</v>
       </c>
       <c r="B661" s="0">
-        <v>2.6446896563210243</v>
+        <v>-1.7326651968974178</v>
       </c>
     </row>
     <row r="662">
@@ -5380,7 +5388,7 @@
         <v>660</v>
       </c>
       <c r="B662" s="0">
-        <v>4.4559113747473944</v>
+        <v>-2.9285158834733962</v>
       </c>
     </row>
     <row r="663">
@@ -5388,7 +5396,7 @@
         <v>661</v>
       </c>
       <c r="B663" s="0">
-        <v>7.1958314719822178</v>
+        <v>-4.7521921072510676</v>
       </c>
     </row>
     <row r="664">
@@ -5396,7 +5404,7 @@
         <v>662</v>
       </c>
       <c r="B664" s="0">
-        <v>9.0880108597268698</v>
+        <v>-6.0221775125942889</v>
       </c>
     </row>
     <row r="665">
@@ -5404,7 +5412,7 @@
         <v>663</v>
       </c>
       <c r="B665" s="0">
-        <v>9.163517397932095</v>
+        <v>-6.0730380165243751</v>
       </c>
     </row>
     <row r="666">
@@ -5412,7 +5420,7 @@
         <v>664</v>
       </c>
       <c r="B666" s="0">
-        <v>8.314708066442174</v>
+        <v>-5.5020969695774138</v>
       </c>
     </row>
     <row r="667">
@@ -5420,7 +5428,7 @@
         <v>665</v>
       </c>
       <c r="B667" s="0">
-        <v>8.3619489654026502</v>
+        <v>-5.5338264325118942</v>
       </c>
     </row>
     <row r="668">
@@ -5428,7 +5436,7 @@
         <v>666</v>
       </c>
       <c r="B668" s="0">
-        <v>9.3667590757503909</v>
+        <v>-6.2100098456230883</v>
       </c>
     </row>
     <row r="669">
@@ -5436,7 +5444,7 @@
         <v>667</v>
       </c>
       <c r="B669" s="0">
-        <v>5.6892353633349977</v>
+        <v>-3.7472002367494643</v>
       </c>
     </row>
     <row r="670">
@@ -5444,7 +5452,7 @@
         <v>668</v>
       </c>
       <c r="B670" s="0">
-        <v>1.9272333379055351</v>
+        <v>-1.2610580489136356</v>
       </c>
     </row>
     <row r="671">
@@ -5452,7 +5460,7 @@
         <v>669</v>
       </c>
       <c r="B671" s="0">
-        <v>0.049120098396537339</v>
+        <v>-0.03203753471904347</v>
       </c>
     </row>
     <row r="672">
@@ -5460,7 +5468,7 @@
         <v>670</v>
       </c>
       <c r="B672" s="0">
-        <v>0.95377839362113159</v>
+        <v>-0.62304622118717734</v>
       </c>
     </row>
     <row r="673">
@@ -5468,7 +5476,7 @@
         <v>671</v>
       </c>
       <c r="B673" s="0">
-        <v>4.6678008321979165</v>
+        <v>-3.0689139029653569</v>
       </c>
     </row>
     <row r="674">
@@ -5476,7 +5484,7 @@
         <v>672</v>
       </c>
       <c r="B674" s="0">
-        <v>5.6152815177849993</v>
+        <v>-3.6980081059036176</v>
       </c>
     </row>
     <row r="675">
@@ -5484,7 +5492,7 @@
         <v>673</v>
       </c>
       <c r="B675" s="0">
-        <v>6.5666076577123373</v>
+        <v>-4.3317994658607448</v>
       </c>
     </row>
     <row r="676">
@@ -5492,7 +5500,7 @@
         <v>674</v>
       </c>
       <c r="B676" s="0">
-        <v>5.6706817119736206</v>
+        <v>-3.7348576208972717</v>
       </c>
     </row>
     <row r="677">
@@ -5500,7 +5508,7 @@
         <v>675</v>
       </c>
       <c r="B677" s="0">
-        <v>0.99197494000259834</v>
+        <v>-0.64804024258082471</v>
       </c>
     </row>
     <row r="678">
@@ -5508,7 +5516,7 @@
         <v>676</v>
       </c>
       <c r="B678" s="0">
-        <v>-1.8250867354244205</v>
+        <v>1.186588618095282</v>
       </c>
     </row>
     <row r="679">
@@ -5516,7 +5524,7 @@
         <v>677</v>
       </c>
       <c r="B679" s="0">
-        <v>-2.7610841712022616</v>
+        <v>1.7923011030866081</v>
       </c>
     </row>
     <row r="680">
@@ -5524,7 +5532,7 @@
         <v>678</v>
       </c>
       <c r="B680" s="0">
-        <v>-5.5181374729651216</v>
+        <v>3.5655431178113055</v>
       </c>
     </row>
     <row r="681">
@@ -5532,7 +5540,7 @@
         <v>679</v>
       </c>
       <c r="B681" s="0">
-        <v>-7.3079221930688245</v>
+        <v>4.708104180189296</v>
       </c>
     </row>
     <row r="682">
@@ -5540,7 +5548,7 @@
         <v>680</v>
       </c>
       <c r="B682" s="0">
-        <v>-5.476587971310706</v>
+        <v>3.5389394563294947</v>
       </c>
     </row>
     <row r="683">
@@ -5548,7 +5556,7 @@
         <v>681</v>
       </c>
       <c r="B683" s="0">
-        <v>-2.7981567826839826</v>
+        <v>1.8162528107442455</v>
       </c>
     </row>
     <row r="684">
@@ -5556,7 +5564,7 @@
         <v>682</v>
       </c>
       <c r="B684" s="0">
-        <v>-0.1530468275829957</v>
+        <v>0.099787073351530794</v>
       </c>
     </row>
     <row r="685">
@@ -5564,7 +5572,7 @@
         <v>683</v>
       </c>
       <c r="B685" s="0">
-        <v>1.6040158196493248</v>
+        <v>-1.0489801240469854</v>
       </c>
     </row>
     <row r="686">
@@ -5572,7 +5580,7 @@
         <v>684</v>
       </c>
       <c r="B686" s="0">
-        <v>1.5938896177405053</v>
+        <v>-1.0423396878394422</v>
       </c>
     </row>
     <row r="687">
@@ -5580,7 +5588,7 @@
         <v>685</v>
       </c>
       <c r="B687" s="0">
-        <v>2.4624093888945651</v>
+        <v>-1.6127349654485201</v>
       </c>
     </row>
     <row r="688">
@@ -5588,7 +5596,7 @@
         <v>686</v>
       </c>
       <c r="B688" s="0">
-        <v>5.0995029486041048</v>
+        <v>-3.355286304721774</v>
       </c>
     </row>
     <row r="689">
@@ -5596,7 +5604,7 @@
         <v>687</v>
       </c>
       <c r="B689" s="0">
-        <v>7.7836521670246253</v>
+        <v>-5.1457874169701086</v>
       </c>
     </row>
     <row r="690">
@@ -5604,7 +5612,7 @@
         <v>688</v>
       </c>
       <c r="B690" s="0">
-        <v>7.8516634467218038</v>
+        <v>-5.191380857496303</v>
       </c>
     </row>
     <row r="691">
@@ -5612,7 +5620,7 @@
         <v>689</v>
       </c>
       <c r="B691" s="0">
-        <v>8.7897969897860726</v>
+        <v>-5.8214410413439106</v>
       </c>
     </row>
     <row r="692">
@@ -5620,7 +5628,7 @@
         <v>690</v>
       </c>
       <c r="B692" s="0">
-        <v>11.589036168968891</v>
+        <v>-7.7144198853847223</v>
       </c>
     </row>
     <row r="693">
@@ -5628,7 +5636,7 @@
         <v>691</v>
       </c>
       <c r="B693" s="0">
-        <v>12.649739964070349</v>
+        <v>-8.4368963998695001</v>
       </c>
     </row>
     <row r="694">
@@ -5636,7 +5644,7 @@
         <v>692</v>
       </c>
       <c r="B694" s="0">
-        <v>10.974131371318196</v>
+        <v>-7.2969046556226997</v>
       </c>
     </row>
     <row r="695">
@@ -5644,7 +5652,7 @@
         <v>693</v>
       </c>
       <c r="B695" s="0">
-        <v>7.3684705520348883</v>
+        <v>-4.8677015680981297</v>
       </c>
     </row>
     <row r="696">
@@ -5652,7 +5660,7 @@
         <v>694</v>
       </c>
       <c r="B696" s="0">
-        <v>5.5420200411155358</v>
+        <v>-3.6492893204938524</v>
       </c>
     </row>
     <row r="697">
@@ -5660,7 +5668,7 @@
         <v>695</v>
       </c>
       <c r="B697" s="0">
-        <v>7.4120580539949614</v>
+        <v>-4.8968765302018609</v>
       </c>
     </row>
     <row r="698">
@@ -5668,7 +5676,7 @@
         <v>696</v>
       </c>
       <c r="B698" s="0">
-        <v>11.205602399426441</v>
+        <v>-7.4539589795938141</v>
       </c>
     </row>
     <row r="699">
@@ -5676,7 +5684,7 @@
         <v>697</v>
       </c>
       <c r="B699" s="0">
-        <v>12.293180401455473</v>
+        <v>-8.1937111903735307</v>
       </c>
     </row>
     <row r="700">
@@ -5684,7 +5692,7 @@
         <v>698</v>
       </c>
       <c r="B700" s="0">
-        <v>11.469335626454157</v>
+        <v>-7.6330689506281217</v>
       </c>
     </row>
     <row r="701">
@@ -5692,7 +5700,7 @@
         <v>699</v>
       </c>
       <c r="B701" s="0">
-        <v>12.543496803570852</v>
+        <v>-8.3644008702991304</v>
       </c>
     </row>
     <row r="702">
@@ -5700,7 +5708,7 @@
         <v>700</v>
       </c>
       <c r="B702" s="0">
-        <v>11.736649568415293</v>
+        <v>-7.8147912241200848</v>
       </c>
     </row>
     <row r="703">
@@ -5708,7 +5716,7 @@
         <v>701</v>
       </c>
       <c r="B703" s="0">
-        <v>9.8871291137355417</v>
+        <v>-6.5611733349970223</v>
       </c>
     </row>
     <row r="704">
@@ -5716,7 +5724,7 @@
         <v>702</v>
       </c>
       <c r="B704" s="0">
-        <v>8.9920424423610328</v>
+        <v>-5.9575544142927628</v>
       </c>
     </row>
     <row r="705">
@@ -5724,7 +5732,7 @@
         <v>703</v>
       </c>
       <c r="B705" s="0">
-        <v>10.998532808682704</v>
+        <v>-7.3134547669750454</v>
       </c>
     </row>
     <row r="706">
@@ -5732,7 +5740,7 @@
         <v>704</v>
       </c>
       <c r="B706" s="0">
-        <v>13.117201344577667</v>
+        <v>-8.7562173670816907</v>
       </c>
     </row>
     <row r="707">
@@ -5740,7 +5748,7 @@
         <v>705</v>
       </c>
       <c r="B707" s="0">
-        <v>10.262082331467395</v>
+        <v>-6.8146232196203282</v>
       </c>
     </row>
     <row r="708">
@@ -5748,7 +5756,7 @@
         <v>706</v>
       </c>
       <c r="B708" s="0">
-        <v>8.3208616924042058</v>
+        <v>-5.5062297574714538</v>
       </c>
     </row>
     <row r="709">
@@ -5756,7 +5764,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="0">
-        <v>7.3672883851369573</v>
+        <v>-4.8669103578133059</v>
       </c>
     </row>
     <row r="710">
@@ -5764,7 +5772,7 @@
         <v>708</v>
       </c>
       <c r="B710" s="0">
-        <v>6.386822871627813</v>
+        <v>-4.2118577394169421</v>
       </c>
     </row>
     <row r="711">
@@ -5772,7 +5780,7 @@
         <v>709</v>
       </c>
       <c r="B711" s="0">
-        <v>7.4112482685166698</v>
+        <v>-4.8963344644943341</v>
       </c>
     </row>
     <row r="712">
@@ -5780,7 +5788,7 @@
         <v>710</v>
       </c>
       <c r="B712" s="0">
-        <v>8.463447016210333</v>
+        <v>-5.602016345162574</v>
       </c>
     </row>
     <row r="713">
@@ -5788,7 +5796,7 @@
         <v>711</v>
       </c>
       <c r="B713" s="0">
-        <v>7.4997278066587816</v>
+        <v>-4.955571558064138</v>
       </c>
     </row>
     <row r="714">
@@ -5796,7 +5804,7 @@
         <v>712</v>
       </c>
       <c r="B714" s="0">
-        <v>8.5353702633484598</v>
+        <v>-5.6503521795986371</v>
       </c>
     </row>
     <row r="715">
@@ -5804,7 +5812,7 @@
         <v>713</v>
       </c>
       <c r="B715" s="0">
-        <v>11.665715190825361</v>
+        <v>-7.7665516885370955</v>
       </c>
     </row>
     <row r="716">
@@ -5812,7 +5820,7 @@
         <v>714</v>
       </c>
       <c r="B716" s="0">
-        <v>13.838694519422706</v>
+        <v>-9.2501804578911813</v>
       </c>
     </row>
     <row r="717">
@@ -5820,7 +5828,7 @@
         <v>715</v>
       </c>
       <c r="B717" s="0">
-        <v>16.079364394978803</v>
+        <v>-10.792974557379171</v>
       </c>
     </row>
     <row r="718">
@@ -5828,7 +5836,7 @@
         <v>716</v>
       </c>
       <c r="B718" s="0">
-        <v>14.208063926644465</v>
+        <v>-9.503592149384847</v>
       </c>
     </row>
     <row r="719">
@@ -5836,7 +5844,7 @@
         <v>717</v>
       </c>
       <c r="B719" s="0">
-        <v>9.0508066778969951</v>
+        <v>-5.9971223043072488</v>
       </c>
     </row>
     <row r="720">
@@ -5844,7 +5852,7 @@
         <v>718</v>
       </c>
       <c r="B720" s="0">
-        <v>4.8670329866429176</v>
+        <v>-3.2010213423819072</v>
       </c>
     </row>
     <row r="721">
@@ -5852,7 +5860,7 @@
         <v>719</v>
       </c>
       <c r="B721" s="0">
-        <v>0.65224608545505935</v>
+        <v>-0.42585288068192922</v>
       </c>
     </row>
     <row r="722">
@@ -5860,7 +5868,7 @@
         <v>720</v>
       </c>
       <c r="B722" s="0">
-        <v>-1.4658754228410964</v>
+        <v>0.95362517071961617</v>
       </c>
     </row>
     <row r="723">
@@ -5868,7 +5876,7 @@
         <v>721</v>
       </c>
       <c r="B723" s="0">
-        <v>-2.5241587698450552</v>
+        <v>1.6391591940951684</v>
       </c>
     </row>
     <row r="724">
@@ -5876,7 +5884,7 @@
         <v>722</v>
       </c>
       <c r="B724" s="0">
-        <v>-3.5743096958885054</v>
+        <v>2.3170262479734829</v>
       </c>
     </row>
     <row r="725">
@@ -5884,7 +5892,7 @@
         <v>723</v>
       </c>
       <c r="B725" s="0">
-        <v>-3.5867963988010452</v>
+        <v>2.3250720847385056</v>
       </c>
     </row>
     <row r="726">
@@ -5892,7 +5900,7 @@
         <v>724</v>
       </c>
       <c r="B726" s="0">
-        <v>-1.5670035024788336</v>
+        <v>1.0192394851260655</v>
       </c>
     </row>
     <row r="727">
@@ -5900,7 +5908,7 @@
         <v>725</v>
       </c>
       <c r="B727" s="0">
-        <v>-0.56704534043406163</v>
+        <v>0.36945478228153938</v>
       </c>
     </row>
     <row r="728">
@@ -5908,7 +5916,7 @@
         <v>726</v>
       </c>
       <c r="B728" s="0">
-        <v>-1.5983500687534657</v>
+        <v>1.0395733389403967</v>
       </c>
     </row>
     <row r="729">
@@ -5916,7 +5924,7 @@
         <v>727</v>
       </c>
       <c r="B729" s="0">
-        <v>-1.6165982559150178</v>
+        <v>1.0514095610671892</v>
       </c>
     </row>
     <row r="730">
@@ -5924,7 +5932,7 @@
         <v>728</v>
       </c>
       <c r="B730" s="0">
-        <v>-5.6183313885065163</v>
+        <v>3.6296812186626908</v>
       </c>
     </row>
     <row r="731">
@@ -5932,7 +5940,7 @@
         <v>729</v>
       </c>
       <c r="B731" s="0">
-        <v>-11.502110682058548</v>
+        <v>7.3599649481878853</v>
       </c>
     </row>
     <row r="732">
@@ -5940,7 +5948,7 @@
         <v>730</v>
       </c>
       <c r="B732" s="0">
-        <v>-9.4593481785765672</v>
+        <v>6.0728120413720239</v>
       </c>
     </row>
     <row r="733">
@@ -5948,7 +5956,7 @@
         <v>731</v>
       </c>
       <c r="B733" s="0">
-        <v>-4.6243721172759926</v>
+        <v>2.9924738862681566</v>
       </c>
     </row>
     <row r="734">
@@ -5956,7 +5964,7 @@
         <v>732</v>
       </c>
       <c r="B734" s="0">
-        <v>-4.6224354635889373</v>
+        <v>2.9912303009830188</v>
       </c>
     </row>
     <row r="735">
@@ -5964,7 +5972,7 @@
         <v>733</v>
       </c>
       <c r="B735" s="0">
-        <v>-3.6763490005950041</v>
+        <v>2.382765733101293</v>
       </c>
     </row>
     <row r="736">
@@ -5972,7 +5980,7 @@
         <v>734</v>
       </c>
       <c r="B736" s="0">
-        <v>-2.7414921884860197</v>
+        <v>1.779642002587623</v>
       </c>
     </row>
     <row r="737">
@@ -5980,7 +5988,7 @@
         <v>735</v>
       </c>
       <c r="B737" s="0">
-        <v>-4.612413338815684</v>
+        <v>2.9847946574699811</v>
       </c>
     </row>
     <row r="738">
@@ -5988,7 +5996,7 @@
         <v>736</v>
       </c>
       <c r="B738" s="0">
-        <v>-7.3692293308347372</v>
+        <v>4.7471238440134798</v>
       </c>
     </row>
     <row r="739">
@@ -5996,7 +6004,7 @@
         <v>737</v>
       </c>
       <c r="B739" s="0">
-        <v>-10.045462687296675</v>
+        <v>6.4429766850037256</v>
       </c>
     </row>
     <row r="740">
@@ -6004,7 +6012,7 @@
         <v>738</v>
       </c>
       <c r="B740" s="0">
-        <v>-12.625590916455662</v>
+        <v>8.0643576805983823</v>
       </c>
     </row>
     <row r="741">
@@ -6012,7 +6020,7 @@
         <v>739</v>
       </c>
       <c r="B741" s="0">
-        <v>-14.194843545483245</v>
+        <v>9.0441274001257188</v>
       </c>
     </row>
     <row r="742">
@@ -6020,7 +6028,7 @@
         <v>740</v>
       </c>
       <c r="B742" s="0">
-        <v>-13.117784696844138</v>
+        <v>8.372173900018586</v>
       </c>
     </row>
     <row r="743">
@@ -6028,7 +6036,7 @@
         <v>741</v>
       </c>
       <c r="B743" s="0">
-        <v>-11.249118642722559</v>
+        <v>7.2010033900291432</v>
       </c>
     </row>
     <row r="744">
@@ -6036,7 +6044,7 @@
         <v>742</v>
       </c>
       <c r="B744" s="0">
-        <v>-13.592018441456933</v>
+        <v>8.6683136646329828</v>
       </c>
     </row>
     <row r="745">
@@ -6044,7 +6052,7 @@
         <v>743</v>
       </c>
       <c r="B745" s="0">
-        <v>-18.147582714820693</v>
+        <v>11.491271171505666</v>
       </c>
     </row>
     <row r="746">
@@ -6052,7 +6060,7 @@
         <v>744</v>
       </c>
       <c r="B746" s="0">
-        <v>-21.569021437967521</v>
+        <v>13.586179949252232</v>
       </c>
     </row>
     <row r="747">
@@ -6060,7 +6068,7 @@
         <v>745</v>
       </c>
       <c r="B747" s="0">
-        <v>-35.045039949478834</v>
+        <v>21.640492431287669</v>
       </c>
     </row>
     <row r="748">
@@ -6068,7 +6076,7 @@
         <v>746</v>
       </c>
       <c r="B748" s="0">
-        <v>-43.49535008470319</v>
+        <v>26.542736328501967</v>
       </c>
     </row>
     <row r="749">
@@ -6076,7 +6084,7 @@
         <v>747</v>
       </c>
       <c r="B749" s="0">
-        <v>-39.979039369294597</v>
+        <v>24.515975352603373</v>
       </c>
     </row>
     <row r="750">
@@ -6084,7 +6092,7 @@
         <v>748</v>
       </c>
       <c r="B750" s="0">
-        <v>-36.426983729379138</v>
+        <v>22.449669701701531</v>
       </c>
     </row>
     <row r="751">
@@ -6092,7 +6100,7 @@
         <v>749</v>
       </c>
       <c r="B751" s="0">
-        <v>-28.718700805961213</v>
+        <v>17.897215069691828</v>
       </c>
     </row>
     <row r="752">
@@ -6100,7 +6108,7 @@
         <v>750</v>
       </c>
       <c r="B752" s="0">
-        <v>-21.608549423455454</v>
+        <v>13.610259143931652</v>
       </c>
     </row>
     <row r="753">
@@ -6108,7 +6116,7 @@
         <v>751</v>
       </c>
       <c r="B753" s="0">
-        <v>-21.962125018602517</v>
+        <v>13.825522389185398</v>
       </c>
     </row>
     <row r="754">
@@ -6116,7 +6124,7 @@
         <v>752</v>
       </c>
       <c r="B754" s="0">
-        <v>-18.185641723804281</v>
+        <v>11.51469167479774</v>
       </c>
     </row>
     <row r="755">
@@ -6124,7 +6132,7 @@
         <v>753</v>
       </c>
       <c r="B755" s="0">
-        <v>-13.421304796823097</v>
+        <v>8.5617600058139089</v>
       </c>
     </row>
     <row r="756">
@@ -6132,7 +6140,7 @@
         <v>754</v>
       </c>
       <c r="B756" s="0">
-        <v>-12.921735942854038</v>
+        <v>8.2496221275522643</v>
       </c>
     </row>
     <row r="757">
@@ -6140,7 +6148,7 @@
         <v>755</v>
       </c>
       <c r="B757" s="0">
-        <v>-12.835777177008575</v>
+        <v>8.195865022197232</v>
       </c>
     </row>
     <row r="758">
@@ -6148,7 +6156,7 @@
         <v>756</v>
       </c>
       <c r="B758" s="0">
-        <v>-11.435909616392305</v>
+        <v>7.3183812753800046</v>
       </c>
     </row>
     <row r="759">
@@ -6156,7 +6164,7 @@
         <v>757</v>
       </c>
       <c r="B759" s="0">
-        <v>-8.9585473017520503</v>
+        <v>5.7559801302345015</v>
       </c>
     </row>
     <row r="760">
@@ -6164,7 +6172,7 @@
         <v>758</v>
       </c>
       <c r="B760" s="0">
-        <v>-5.604971507588111</v>
+        <v>3.6211302449597618</v>
       </c>
     </row>
     <row r="761">
@@ -6172,7 +6180,7 @@
         <v>759</v>
       </c>
       <c r="B761" s="0">
-        <v>-3.1206758470399034</v>
+        <v>2.0244993460128184</v>
       </c>
     </row>
     <row r="762">
@@ -6180,7 +6188,7 @@
         <v>760</v>
       </c>
       <c r="B762" s="0">
-        <v>-1.6514180993342322</v>
+        <v>1.0739925444849086</v>
       </c>
     </row>
     <row r="763">
@@ -6188,7 +6196,7 @@
         <v>761</v>
       </c>
       <c r="B763" s="0">
-        <v>-0.85945094977563363</v>
+        <v>0.55969134585445213</v>
       </c>
     </row>
     <row r="764">
@@ -6196,7 +6204,7 @@
         <v>762</v>
       </c>
       <c r="B764" s="0">
-        <v>-0.22643246351872029</v>
+        <v>0.14761628512404851</v>
       </c>
     </row>
     <row r="765">
@@ -6204,7 +6212,7 @@
         <v>763</v>
       </c>
       <c r="B765" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -6212,7 +6220,7 @@
         <v>764</v>
       </c>
       <c r="B766" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -6220,7 +6228,7 @@
         <v>765</v>
       </c>
       <c r="B767" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
